--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_29.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="682">
   <si>
     <t>STR</t>
   </si>
@@ -132,21 +132,219 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jdc8621</t>
-  </si>
-  <si>
-    <t>04/06/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r595660618-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40095</t>
+  </si>
+  <si>
+    <t>93001</t>
+  </si>
+  <si>
+    <t>595660618</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Rewarded for Stressful Adulting</t>
+  </si>
+  <si>
+    <t>I travel for a living and had recently totaled my travel trailer in this area. With a fast approaching deadline I needed a place to stay while I rented a cargo trailer, unpacked my life from my previous home on wheels and then headed off for my next job. This was an emotional and difficult time for me as well.
+I found the room very clean and updated. The office staff was wonderfully welcoming and accommodating. I travel with a Service Dog and he was welcomed and respected as well. The shower had great water pressure and the TV got all the channels. The bed was comfy and the pillows were plentiful. It was such a blessing to not have to worry about any issues while I dealt with insurance companies, rentals and emotional deconstructing of my life and home. 
+The restaurant attached to the hotel had great and unique food but was definitely over priced. The breakfast vouchers provided from the hotel lobby clerk for our "free breakfast" were decent but still a little limiting for someone who prefers a more hearty breakfast before a manual labor day. 
+The indoor pool being set up inside the lobby area was very unique. The hotel was also setting up for Mardi Gras celebrations and the decor was wonderful!
+All in all the hotel was great and I would recommend it for anyone looking for great accommodations at a wonderful price. If...I travel for a living and had recently totaled my travel trailer in this area. With a fast approaching deadline I needed a place to stay while I rented a cargo trailer, unpacked my life from my previous home on wheels and then headed off for my next job. This was an emotional and difficult time for me as well.I found the room very clean and updated. The office staff was wonderfully welcoming and accommodating. I travel with a Service Dog and he was welcomed and respected as well. The shower had great water pressure and the TV got all the channels. The bed was comfy and the pillows were plentiful. It was such a blessing to not have to worry about any issues while I dealt with insurance companies, rentals and emotional deconstructing of my life and home. The restaurant attached to the hotel had great and unique food but was definitely over priced. The breakfast vouchers provided from the hotel lobby clerk for our "free breakfast" were decent but still a little limiting for someone who prefers a more hearty breakfast before a manual labor day. The indoor pool being set up inside the lobby area was very unique. The hotel was also setting up for Mardi Gras celebrations and the decor was wonderful!All in all the hotel was great and I would recommend it for anyone looking for great accommodations at a wonderful price. If passing through again in the future I would definitely book again and possibly schedule a few extra days to enjoy all the hotel has to offer. MoreShow less</t>
+  </si>
+  <si>
+    <t>ClarionCovington, Front Office Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
+  </si>
+  <si>
+    <t>I travel for a living and had recently totaled my travel trailer in this area. With a fast approaching deadline I needed a place to stay while I rented a cargo trailer, unpacked my life from my previous home on wheels and then headed off for my next job. This was an emotional and difficult time for me as well.
+I found the room very clean and updated. The office staff was wonderfully welcoming and accommodating. I travel with a Service Dog and he was welcomed and respected as well. The shower had great water pressure and the TV got all the channels. The bed was comfy and the pillows were plentiful. It was such a blessing to not have to worry about any issues while I dealt with insurance companies, rentals and emotional deconstructing of my life and home. 
+The restaurant attached to the hotel had great and unique food but was definitely over priced. The breakfast vouchers provided from the hotel lobby clerk for our "free breakfast" were decent but still a little limiting for someone who prefers a more hearty breakfast before a manual labor day. 
+The indoor pool being set up inside the lobby area was very unique. The hotel was also setting up for Mardi Gras celebrations and the decor was wonderful!
+All in all the hotel was great and I would recommend it for anyone looking for great accommodations at a wonderful price. If...I travel for a living and had recently totaled my travel trailer in this area. With a fast approaching deadline I needed a place to stay while I rented a cargo trailer, unpacked my life from my previous home on wheels and then headed off for my next job. This was an emotional and difficult time for me as well.I found the room very clean and updated. The office staff was wonderfully welcoming and accommodating. I travel with a Service Dog and he was welcomed and respected as well. The shower had great water pressure and the TV got all the channels. The bed was comfy and the pillows were plentiful. It was such a blessing to not have to worry about any issues while I dealt with insurance companies, rentals and emotional deconstructing of my life and home. The restaurant attached to the hotel had great and unique food but was definitely over priced. The breakfast vouchers provided from the hotel lobby clerk for our "free breakfast" were decent but still a little limiting for someone who prefers a more hearty breakfast before a manual labor day. The indoor pool being set up inside the lobby area was very unique. The hotel was also setting up for Mardi Gras celebrations and the decor was wonderful!All in all the hotel was great and I would recommend it for anyone looking for great accommodations at a wonderful price. If passing through again in the future I would definitely book again and possibly schedule a few extra days to enjoy all the hotel has to offer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r592006875-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>592006875</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Always a nice stay</t>
+  </si>
+  <si>
+    <t>We stay here every time we take our “staycation” to visit the Fountainebleu State Park and to visit the Covington area. The rooms are clean, the pool is awesome (indoor/outdoor), hotel staff is prompt and friendly. Do be aware that breakfast is a $5 credit for each person-not technically complimentary but you’ll only spend about $5 extra. We will be back next year!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>ClarionCovington, Front Office Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>We stay here every time we take our “staycation” to visit the Fountainebleu State Park and to visit the Covington area. The rooms are clean, the pool is awesome (indoor/outdoor), hotel staff is prompt and friendly. Do be aware that breakfast is a $5 credit for each person-not technically complimentary but you’ll only spend about $5 extra. We will be back next year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r591308780-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>591308780</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>A fresh take on a classic design - the Holidome lives on.</t>
+  </si>
+  <si>
+    <t>The Clarion Inn &amp; Suites was formerly known as the Holiday Inn - Covington and has been a local landmark for years.  The cross street is "Holiday Drive" if that's any indication.  This hotel features the iconic "Holidome" setup with the giant atrium with indoor and outdoor pools, semi-open fitness center, and a big socializing area in the lobby.  This hotel has been here for many years and, in my opinion, is one of the best options for staying in Covington.  Toward the end of its run with the Holiday Inn flag, the hotel had become a bit worn down and was showing its age. Since becoming Clarion, it's fully updated, remodeled, up-to-date, and an absolute delight to stay at.  They've really done it right.
+This place brings me back to my childhood, in many ways.  The large atrium has ample couches, tables, and even a grand piano available for folks who want to play.  The hotel has a very community feel and it's wonderful for socializing.  The pools are beautiful and well kept, with beach chairs available and plenty of room for the whole family.  I was traveling for work and it was a pleasure to return here every evening.
+I can't overemphasize the classic feel of this place. Back in the day, people traveling would stay in places like this, meet people, and just have a good time while staying overnight.  That they've got this place in such...The Clarion Inn &amp; Suites was formerly known as the Holiday Inn - Covington and has been a local landmark for years.  The cross street is "Holiday Drive" if that's any indication.  This hotel features the iconic "Holidome" setup with the giant atrium with indoor and outdoor pools, semi-open fitness center, and a big socializing area in the lobby.  This hotel has been here for many years and, in my opinion, is one of the best options for staying in Covington.  Toward the end of its run with the Holiday Inn flag, the hotel had become a bit worn down and was showing its age. Since becoming Clarion, it's fully updated, remodeled, up-to-date, and an absolute delight to stay at.  They've really done it right.This place brings me back to my childhood, in many ways.  The large atrium has ample couches, tables, and even a grand piano available for folks who want to play.  The hotel has a very community feel and it's wonderful for socializing.  The pools are beautiful and well kept, with beach chairs available and plenty of room for the whole family.  I was traveling for work and it was a pleasure to return here every evening.I can't overemphasize the classic feel of this place. Back in the day, people traveling would stay in places like this, meet people, and just have a good time while staying overnight.  That they've got this place in such good shape is impressive.The staff are friendly and abundant.  Parking is free.  You have the option of parking behind the gate (keycard access) or parking in the open.  This is great if you're traveling with an RV or a trailer and want some extra security.  There is a "free" washer and dryer for guests to use, which comes in handy when on a cross-country road trip and you need to re-up your clothes stash.  Detergent was available complimentary at the front desk but I brought my own.The rooms are recently renovated and the beds are comfortable.  I strongly recommend getting an "atrium" room that faces the Holidome with the pool and lobby.  It's wonderful, although the people in the pool or playing the piano can be loud.  Quiet hours begin at 10 pm, so there nothing loud after then.The restaurant/bar isn't affiliated with the hotel.  Although you book this place and it says "Free breakfast," this is misleading.  You are actually given a $5 voucher per person toward breakfast but it doesn't cover your entire breakfast unless you're only drinking coffee.  That needs to be addressed because this place advertises free breakfast and it's not free.  It's a $5 credit.  Speaking of coffee, this hotel inexplicably has NO free coffee in the lobby.  Your only option for coffee in the morning is to either use the free in-room coffee machine or go to the restaurant and use your $5 voucher.  I've not been to a motel or hotel in years without coffee in the lobby.  The coffee maker in the room is fine, but not having it by the front desk is very strange.  That's my only complaint. Get your coffee before you leave the room.This hotel is situated within walking distance to a Waffle House, a daiquiri shop, shopping center, and two gas stations, with dozens of other dining options within the area.  While I wouldn't cross US-190 on foot, you're basically within 1500 feet of at least 30 restaurants that are all very good.  This place is really in the heart of it all and has great access to I-12, the Causeway, and 190.If you're in the area, give this place a shot.  If you've never experienced an old Holidome setup, you should bring the family and give it a try. They truly don't make them like this anymore!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ClarionCovington, Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>The Clarion Inn &amp; Suites was formerly known as the Holiday Inn - Covington and has been a local landmark for years.  The cross street is "Holiday Drive" if that's any indication.  This hotel features the iconic "Holidome" setup with the giant atrium with indoor and outdoor pools, semi-open fitness center, and a big socializing area in the lobby.  This hotel has been here for many years and, in my opinion, is one of the best options for staying in Covington.  Toward the end of its run with the Holiday Inn flag, the hotel had become a bit worn down and was showing its age. Since becoming Clarion, it's fully updated, remodeled, up-to-date, and an absolute delight to stay at.  They've really done it right.
+This place brings me back to my childhood, in many ways.  The large atrium has ample couches, tables, and even a grand piano available for folks who want to play.  The hotel has a very community feel and it's wonderful for socializing.  The pools are beautiful and well kept, with beach chairs available and plenty of room for the whole family.  I was traveling for work and it was a pleasure to return here every evening.
+I can't overemphasize the classic feel of this place. Back in the day, people traveling would stay in places like this, meet people, and just have a good time while staying overnight.  That they've got this place in such...The Clarion Inn &amp; Suites was formerly known as the Holiday Inn - Covington and has been a local landmark for years.  The cross street is "Holiday Drive" if that's any indication.  This hotel features the iconic "Holidome" setup with the giant atrium with indoor and outdoor pools, semi-open fitness center, and a big socializing area in the lobby.  This hotel has been here for many years and, in my opinion, is one of the best options for staying in Covington.  Toward the end of its run with the Holiday Inn flag, the hotel had become a bit worn down and was showing its age. Since becoming Clarion, it's fully updated, remodeled, up-to-date, and an absolute delight to stay at.  They've really done it right.This place brings me back to my childhood, in many ways.  The large atrium has ample couches, tables, and even a grand piano available for folks who want to play.  The hotel has a very community feel and it's wonderful for socializing.  The pools are beautiful and well kept, with beach chairs available and plenty of room for the whole family.  I was traveling for work and it was a pleasure to return here every evening.I can't overemphasize the classic feel of this place. Back in the day, people traveling would stay in places like this, meet people, and just have a good time while staying overnight.  That they've got this place in such good shape is impressive.The staff are friendly and abundant.  Parking is free.  You have the option of parking behind the gate (keycard access) or parking in the open.  This is great if you're traveling with an RV or a trailer and want some extra security.  There is a "free" washer and dryer for guests to use, which comes in handy when on a cross-country road trip and you need to re-up your clothes stash.  Detergent was available complimentary at the front desk but I brought my own.The rooms are recently renovated and the beds are comfortable.  I strongly recommend getting an "atrium" room that faces the Holidome with the pool and lobby.  It's wonderful, although the people in the pool or playing the piano can be loud.  Quiet hours begin at 10 pm, so there nothing loud after then.The restaurant/bar isn't affiliated with the hotel.  Although you book this place and it says "Free breakfast," this is misleading.  You are actually given a $5 voucher per person toward breakfast but it doesn't cover your entire breakfast unless you're only drinking coffee.  That needs to be addressed because this place advertises free breakfast and it's not free.  It's a $5 credit.  Speaking of coffee, this hotel inexplicably has NO free coffee in the lobby.  Your only option for coffee in the morning is to either use the free in-room coffee machine or go to the restaurant and use your $5 voucher.  I've not been to a motel or hotel in years without coffee in the lobby.  The coffee maker in the room is fine, but not having it by the front desk is very strange.  That's my only complaint. Get your coffee before you leave the room.This hotel is situated within walking distance to a Waffle House, a daiquiri shop, shopping center, and two gas stations, with dozens of other dining options within the area.  While I wouldn't cross US-190 on foot, you're basically within 1500 feet of at least 30 restaurants that are all very good.  This place is really in the heart of it all and has great access to I-12, the Causeway, and 190.If you're in the area, give this place a shot.  If you've never experienced an old Holidome setup, you should bring the family and give it a try. They truly don't make them like this anymore!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r584771101-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584771101</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Complimentary or Credit? Which is it?</t>
+  </si>
+  <si>
+    <t>Hotel was nice and room was clean. I booked through Expedia because it stated the rate included breakfast for 2. When checking in, the key sleeve also stated “complimentary” breakfast. When trying to get breakfast the next morning, we were given $5 credit vouchers toward a purchase of breakfast in the hotel restaurant. This doesn’t sound complimentary. So, I feel mislead and it unfortunately killed my experience staying here. Which is disappointing because I really enjoyed everything else about the hotel. But as a hotel guest, I shouldn’t be mislead with breakfast. I would have been completely fine if the credit was the actual policy. But my rate was supposed to include breakfast and they have COMPLIMENTARY listed on their key sleeves. Which is it??MoreShow less</t>
+  </si>
+  <si>
+    <t>ClarionCovington, Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Hotel was nice and room was clean. I booked through Expedia because it stated the rate included breakfast for 2. When checking in, the key sleeve also stated “complimentary” breakfast. When trying to get breakfast the next morning, we were given $5 credit vouchers toward a purchase of breakfast in the hotel restaurant. This doesn’t sound complimentary. So, I feel mislead and it unfortunately killed my experience staying here. Which is disappointing because I really enjoyed everything else about the hotel. But as a hotel guest, I shouldn’t be mislead with breakfast. I would have been completely fine if the credit was the actual policy. But my rate was supposed to include breakfast and they have COMPLIMENTARY listed on their key sleeves. Which is it??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r583359300-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583359300</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but unorganized!</t>
+  </si>
+  <si>
+    <t>This was a business trip for a conference scheduled upstairs meeting room. Breakfast served in the restaurant was slow. Only one person working while the hotel was full with people and events. It made me and a couple of other late for our meeting because of the slow service. And, comic-con was held in the lobby with no real parking to handle the number of vehicles at the event. Poor planning on the part of the management. However, the rooms were nice and very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>ClarionCovington, front desk assco. at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>This was a business trip for a conference scheduled upstairs meeting room. Breakfast served in the restaurant was slow. Only one person working while the hotel was full with people and events. It made me and a couple of other late for our meeting because of the slow service. And, comic-con was held in the lobby with no real parking to handle the number of vehicles at the event. Poor planning on the part of the management. However, the rooms were nice and very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r578659550-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>578659550</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Fun motel 1 hour from NOLA</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised with how nice and convenient this place was for the price!I have to admit there is something about a motel with a pool in the courtyard that makes me think of the 60's and 70's when that was the coolest thing ever!The lime green front doors, plants and huge pool make this motel JUST like that!We stayed here on a road trip heading to New Orleans. It's only 1 hour away if you take the causeway.ROOM:Everything has been renovated, bathrooms had a spacious granite counter with big mirrors and good towels, and the room had a fridge and microwave. We stayed in a ground floor unit that faced the pool and it had an awesome vibe.FOOD/GYM:The gym was actually decently equipped but was pretty warm for a hard workout. The restaurant was a PLEASANT surprise! They had a ton of great menu items, daily specials and many healthy/trendy options. We ate lunch and dinner there and absolutely loved the food! The restaurant itself was impressive as well. Great stay all around, no complaints at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>ClarionCovington, front desk associate at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised with how nice and convenient this place was for the price!I have to admit there is something about a motel with a pool in the courtyard that makes me think of the 60's and 70's when that was the coolest thing ever!The lime green front doors, plants and huge pool make this motel JUST like that!We stayed here on a road trip heading to New Orleans. It's only 1 hour away if you take the causeway.ROOM:Everything has been renovated, bathrooms had a spacious granite counter with big mirrors and good towels, and the room had a fridge and microwave. We stayed in a ground floor unit that faced the pool and it had an awesome vibe.FOOD/GYM:The gym was actually decently equipped but was pretty warm for a hard workout. The restaurant was a PLEASANT surprise! They had a ton of great menu items, daily specials and many healthy/trendy options. We ate lunch and dinner there and absolutely loved the food! The restaurant itself was impressive as well. Great stay all around, no complaints at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r572751140-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>572751140</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Hotel is conveniently located near I 12.    Rooms are standard.  Clean, comfortable bed.  Indoor &amp; outdoor pools, gym area.  Basic breakfast (egg choice, potatoes or grits, toast &amp; coffee) or $5 toward other menu items at the onsite restaurant (The Rocks Restaurant &amp; lounge - also HAPPY hour specials).  Business center offers computer &amp; printing access.  Front desk staff were very friendly.  Gated parking available.Nice stay &amp; decent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClarionCovington, Front Desk at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is conveniently located near I 12.    Rooms are standard.  Clean, comfortable bed.  Indoor &amp; outdoor pools, gym area.  Basic breakfast (egg choice, potatoes or grits, toast &amp; coffee) or $5 toward other menu items at the onsite restaurant (The Rocks Restaurant &amp; lounge - also HAPPY hour specials).  Business center offers computer &amp; printing access.  Front desk staff were very friendly.  Gated parking available.Nice stay &amp; decent value.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r567227180-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
-    <t>40095</t>
-  </si>
-  <si>
-    <t>93001</t>
-  </si>
-  <si>
     <t>567227180</t>
   </si>
   <si>
@@ -165,18 +363,15 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>ClarionCovington, Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>ClarionCovington, Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
   </si>
   <si>
     <t>My wife booked this hotel because it close to a couple stops before we get to New Orleans. What a pleasant surprise it was. This Clarion has the most friendly staff I’ve ever experienced at a hotel, Adam is amazing and made us feel right at home. First impressions are everything. Then we got to our room and it was spotless. I hope the rest of our vacation is this nice. If you’re staying in Covington this is where you should be.More</t>
   </si>
   <si>
-    <t>NurseKelley2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r543443818-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -201,9 +396,6 @@
     <t>We returned here as we were very happy with our previous stay (see my prior review).  Still great!  Service is excellent.  Accommodations are lovely.  Good value.  One note: we stayed by the pool as our kiddos like to swim. Unfortunately, the pool opens at 9:00 a.m. and not all kids have good manners and know that it is inappropriate to yell, throw temper tantrums or be generally disruptive in a hotel which accommodates other people who might want to get some rest on a vacation.  I'd advise putting some distance between yourself and the pool unless you are an early riser on vacation and don't mind.  We honestly wouldn't have minded the noise later in the day, kids will be kids.  But no reason to wake up to it!  Anyways, not the hotel's fault, other than maybe the pool should open at 10:00 a.m.  But in general, it would be more helpful to have folks teach their young ones how to be considerate of others ;)More</t>
   </si>
   <si>
-    <t>Ron B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r542091364-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -231,9 +423,6 @@
     <t>Stayed here for a relative's wedding and was very pleased with the updated hotel.  The room was comfortable and quiet.  The gentleman at the front desk was very friendly and accommodating.  He assisted the next day for check-out and was very helpful in checking for any restrictions on travel across the causeway bridge due to fog.  The staff at the reception were all very accommodating.  The service at the bar after the reception was excellent.More</t>
   </si>
   <si>
-    <t>fmfatlanta</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r535632584-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -258,9 +447,6 @@
     <t>From the very professional and absolutely friendly check-in (Thanks so much, Adam!) to the great maintained and spacious grounds to the ship-shape clean and also spacious room, I had a superb stay. If it was for me, I would stay and enjoy the many amenities like indoor and outdoor pool, the fitness center and the - surprise - inviting and light-flooded lobby. Great for a week vacation. New Orleans is close for a visit to the French Quarter, WWII museum or the newly restored PT-305 boat at the North shore and Covington is much safer to stay overnight. Covington area has lots of great food places and attractions for all ages. I was in room 216 in a Kings suite, that earned its name. In summary, a big YES for the Clarion Inn here!More</t>
   </si>
   <si>
-    <t>Maureen T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r502791784-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -279,9 +465,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>ClarionCovington, Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded July 18, 2017</t>
   </si>
   <si>
@@ -291,9 +474,6 @@
     <t>We were crossing LA headed east and couldn't make it to our usual overnight spot ,so we stopped here on a Sunday night. It was extremely quiet. This is in a good safe spot. If you're traveling the Gulf coast with a packed car, this is a good bet for safe parking. The room was very cleans and had a refrigerator, microwave, and coffee maker WITH coffee for morning.The shower had strong pressure and the bed was very comfortable with lots of pillows. It is a 3 star that wears like a 4 star. I imagine the other poor reviews were weekend visitors because the pool area is a huge draw in the summer. The breakfast is made to order. The price is a bargain.  We are airline people; hotel stays are our work life and we were very satisfied with this Clarion. More</t>
   </si>
   <si>
-    <t>Jada D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r499887614-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -309,18 +489,12 @@
     <t>The restaurant and bar are great. The rooms are clean and the staff are very polite and friendly! BEWARE if you are coming to relax and hang out by the pools. There are large groups of kids with inattentive adults hogging the pool area. We came for one night just to enjoy the pool and could not. There were 2 children's birthday parties going on. I feel like they should be made to pay for the area and other guests should be warned before booking. I would never have spent my hard earned money for a room if I had known. Pure and simple, we came to relax by the pool. We tried to go back a little later hoping the kids had left and were turned away. This is because one of the kids had defecated in the pool and the pool had to be shut down. :(((MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>ClarionCovington, General Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded July 18, 2017</t>
   </si>
   <si>
     <t>The restaurant and bar are great. The rooms are clean and the staff are very polite and friendly! BEWARE if you are coming to relax and hang out by the pools. There are large groups of kids with inattentive adults hogging the pool area. We came for one night just to enjoy the pool and could not. There were 2 children's birthday parties going on. I feel like they should be made to pay for the area and other guests should be warned before booking. I would never have spent my hard earned money for a room if I had known. Pure and simple, we came to relax by the pool. We tried to go back a little later hoping the kids had left and were turned away. This is because one of the kids had defecated in the pool and the pool had to be shut down. :(((More</t>
   </si>
   <si>
-    <t>Steve Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r498213645-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -345,9 +519,6 @@
     <t>It's a 3 star hotel but feels like a 4 star. Everything looks new and well maintained. Bedding is super clean. A/C is quiet which is very important for a good sleep. Free breakfast is actually served in their restaurant and freshly cooked. People are friendly and professional.More</t>
   </si>
   <si>
-    <t>Bretmcbunch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r497794011-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -372,9 +543,6 @@
     <t>We stayed st the Clarion for one night. The staff was very friendly when we checked in - told us about events in the area and welcomed us to Covington. The room was a little small but very clean and the bed was comfortable. They have a great full service breakfast - no buffet - you get to order! More</t>
   </si>
   <si>
-    <t>ChuckBennett</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r496110522-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -402,9 +570,6 @@
     <t>The Clarion Inn looks like it has been recently remodeled.  A nice propert, the rooms enter from the outside which does not bother me, but may not be for everyone.  They have a very large swimming pool, both inside and out.  Breakfast was not your typical continental food.  The breakfast was cooked to order; the menu was very small with only two choices but it was perfect for me and the wife.  I would stay here again.More</t>
   </si>
   <si>
-    <t>Carrie Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r492298340-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -420,9 +585,6 @@
     <t>The room is clean and the check in staff was very nice.  My only complaint is that the heavy curtains did not close and my room overlooked the walk way so anyone walking past could look in.  It was a little awkward.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>ClarionCovington, Manager at Clarion Inn &amp; Suites Conference Center, responded to this reviewResponded June 13, 2017</t>
   </si>
   <si>
@@ -432,9 +594,6 @@
     <t>The room is clean and the check in staff was very nice.  My only complaint is that the heavy curtains did not close and my room overlooked the walk way so anyone walking past could look in.  It was a little awkward.More</t>
   </si>
   <si>
-    <t>reed422</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r490653638-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -459,9 +618,6 @@
     <t>I went with my daughter and two young grandsons for a mini vacation  There are only good things to say about this place!  John at the front desk was very gracious and so accommodating.  The whole place was immaculate-kudos to housekeeping and maintainence.  Landscaping around pool and courtyard made me envious!  Easy access and though there are numerous restaurants around we chose to never leave the place-eating all of our meals for the 3 day visit at the inhouse restaurant Rocks.  The free breakfast in the morning was fabulous-no bagels and cereal here.  Eggs, grits or potatoes,sausage and biscuits or toast with juice, coffee.  We enjoyed it so much the kids and I are going back this week-end!More</t>
   </si>
   <si>
-    <t>Bishal K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r484370635-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -487,9 +643,6 @@
   </si>
   <si>
     <t>I was in room 149, the room was very pretty and nice. The best part i liked about them is their swimming pool which is in the middle of hotel and it is closer to all the room they have. And thanks for the late check out we really had a great time staying with you guys. Will definitely stay again whenever we are there.More</t>
-  </si>
-  <si>
-    <t>Terry-Dawn W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r470318489-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -507,7 +660,7 @@
     <t>We were in Covington for a wedding and this was the hotel our niece chose for family to stay.  We were not disappointed!
 We arrived before normal check-in but there was no discussion about getting our room right then and we were checked in right away and with no hassle.  As we were sharing the room with our son, daughter-in-law and granddaughter, the desk clerk on duty was happy to charge half the room to our card and the other half to our son when he arrived.
 We reserved the 2 bedroom/2 bathroom accessible suite and it was a very nice layout.  One negative is the queen bedroom's private bathroom has no door (this is the accessible bathroom but has a regular tub with a handheld shower head so I don't see why it couldn't also have a door.  Makes it a bit awkward if someone is in the bedroom when somewhere needs to use the bathroom).  Mattresses could have been a bit more firm, but these are personal choices.  There are TV's in the living room and both bedrooms.  Kitchen was stocked with dinnerware, utensils and pots and pans and had a nice size fridge with ice-maker, micro, coffeemaker, and cooktop.  
-The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was...We were in Covington for a wedding and this was the hotel our niece chose for family to stay.  We were not disappointed!We arrived before normal check-in but there was no discussion about getting our room right then and we were checked in right away and with no hassle.  As we were sharing the room with our son, daughter-in-law and granddaughter, the desk clerk on duty was happy to charge half the room to our card and the other half to our son when he arrived.We reserved the 2 bedroom/2 bathroom accessible suite and it was a very nice layout.  One negative is the queen bedroom's private bathroom has no door (this is the accessible bathroom but has a regular tub with a handheld shower head so I don't see why it couldn't also have a door.  Makes it a bit awkward if someone is in the bedroom when somewhere needs to use the bathroom).  Mattresses could have been a bit more firm, but these are personal choices.  There are TV's in the living room and both bedrooms.  Kitchen was stocked with dinnerware, utensils and pots and pans and had a nice size fridge with ice-maker, micro, coffeemaker, and cooktop.  The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was around back.  So that he did not have to re-load the truck, Johnny at the front desk got one of the maintenance crew to wheel the cart back to our suite.  And the young man delayed eating his lunch to do just that!  We were looking for a local seafood place to eat on Saturday night, and Brian, who is born and raised in Covington, is THE expert on where to eat and not eat!  He recommended New Orleans Food and Spirits and we were not disappointed (will review that separately).Liked the fact that a portion of the parking lot is gated and you can only get in with your room key and we were staying in this gated section...liked the feeling of a little extra security!  Nice grounds with a number of sitting areas.  Indoor/outdoor pool.The hotel has a restaurant on site and we were given vouchers each morning for breakfast.  The free breakfast consisted of 2 eggs scrambled or fried, sausage or bacon, potatoes or grits, white or wheat toast (can't remember if there was a choice of toast or biscuits), coffee or apple or orange juice.  Quite a big breakfast!The restaurant is open all day and we had the mushroom Swiss burger (so big and thick and...MoreShow less</t>
+The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was...We were in Covington for a wedding and this was the hotel our niece chose for family to stay.  We were not disappointed!We arrived before normal check-in but there was no discussion about getting our room right then and we were checked in right away and with no hassle.  As we were sharing the room with our son, daughter-in-law and granddaughter, the desk clerk on duty was happy to charge half the room to our card and the other half to our son when he arrived.We reserved the 2 bedroom/2 bathroom accessible suite and it was a very nice layout.  One negative is the queen bedroom's private bathroom has no door (this is the accessible bathroom but has a regular tub with a handheld shower head so I don't see why it couldn't also have a door.  Makes it a bit awkward if someone is in the bedroom when somewhere needs to use the bathroom).  Mattresses could have been a bit more firm, but these are personal choices.  There are TV's in the living room and both bedrooms.  Kitchen was stocked with dinnerware, utensils and pots and pans and had a nice size fridge with ice-maker, micro, coffeemaker, and cooktop.  The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was around back.  So that he did not have to re-load the truck, Johnny at the front desk got one of the maintenance crew to wheel the cart back to our suite.  And the young man delayed eating his lunch to do just that!  We were looking for a local seafood place to eat on Saturday night, and Brian, who is born and raised in Covington, is THE expert on where to eat and not eat!  He recommended New Orleans Food and Spirits and we were not disappointed (will review that separately).Liked the fact that a portion of the parking lot is gated and you can only get in with your room key and we were staying in this gated section...liked the feeling of a little extra security!  Nice grounds with a number of sitting areas.  Indoor/outdoor pool.The hotel has a restaurant on site and we were given vouchers each morning for breakfast.  The free breakfast consisted of 2 eggs scrambled or fried, sausage or bacon, potatoes or grits, white or wheat toast (can't remember if there was a choice of toast or biscuits), coffee or apple or orange juice.  Quite a big breakfast!The restaurant is open all day and we had the mushroom Swiss burger (so big and thick and cooked to our preference) and seasoned fries for lunch on the day we arrived!  Some might consider it a bit pricey, but price listed includes taxes and portions are not at all small!We would definitely stay here again!MoreShow less</t>
   </si>
   <si>
     <t>March 2017</t>
@@ -522,10 +675,7 @@
     <t>We were in Covington for a wedding and this was the hotel our niece chose for family to stay.  We were not disappointed!
 We arrived before normal check-in but there was no discussion about getting our room right then and we were checked in right away and with no hassle.  As we were sharing the room with our son, daughter-in-law and granddaughter, the desk clerk on duty was happy to charge half the room to our card and the other half to our son when he arrived.
 We reserved the 2 bedroom/2 bathroom accessible suite and it was a very nice layout.  One negative is the queen bedroom's private bathroom has no door (this is the accessible bathroom but has a regular tub with a handheld shower head so I don't see why it couldn't also have a door.  Makes it a bit awkward if someone is in the bedroom when somewhere needs to use the bathroom).  Mattresses could have been a bit more firm, but these are personal choices.  There are TV's in the living room and both bedrooms.  Kitchen was stocked with dinnerware, utensils and pots and pans and had a nice size fridge with ice-maker, micro, coffeemaker, and cooktop.  
-The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was...We were in Covington for a wedding and this was the hotel our niece chose for family to stay.  We were not disappointed!We arrived before normal check-in but there was no discussion about getting our room right then and we were checked in right away and with no hassle.  As we were sharing the room with our son, daughter-in-law and granddaughter, the desk clerk on duty was happy to charge half the room to our card and the other half to our son when he arrived.We reserved the 2 bedroom/2 bathroom accessible suite and it was a very nice layout.  One negative is the queen bedroom's private bathroom has no door (this is the accessible bathroom but has a regular tub with a handheld shower head so I don't see why it couldn't also have a door.  Makes it a bit awkward if someone is in the bedroom when somewhere needs to use the bathroom).  Mattresses could have been a bit more firm, but these are personal choices.  There are TV's in the living room and both bedrooms.  Kitchen was stocked with dinnerware, utensils and pots and pans and had a nice size fridge with ice-maker, micro, coffeemaker, and cooktop.  The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was around back.  So that he did not have to re-load the truck, Johnny at the front desk got one of the maintenance crew to wheel the cart back to our suite.  And the young man delayed eating his lunch to do just that!  We were looking for a local seafood place to eat on Saturday night, and Brian, who is born and raised in Covington, is THE expert on where to eat and not eat!  He recommended New Orleans Food and Spirits and we were not disappointed (will review that separately).Liked the fact that a portion of the parking lot is gated and you can only get in with your room key and we were staying in this gated section...liked the feeling of a little extra security!  Nice grounds with a number of sitting areas.  Indoor/outdoor pool.The hotel has a restaurant on site and we were given vouchers each morning for breakfast.  The free breakfast consisted of 2 eggs scrambled or fried, sausage or bacon, potatoes or grits, white or wheat toast (can't remember if there was a choice of toast or biscuits), coffee or apple or orange juice.  Quite a big breakfast!The restaurant is open all day and we had the mushroom Swiss burger (so big and thick and...More</t>
-  </si>
-  <si>
-    <t>James G</t>
+The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was...We were in Covington for a wedding and this was the hotel our niece chose for family to stay.  We were not disappointed!We arrived before normal check-in but there was no discussion about getting our room right then and we were checked in right away and with no hassle.  As we were sharing the room with our son, daughter-in-law and granddaughter, the desk clerk on duty was happy to charge half the room to our card and the other half to our son when he arrived.We reserved the 2 bedroom/2 bathroom accessible suite and it was a very nice layout.  One negative is the queen bedroom's private bathroom has no door (this is the accessible bathroom but has a regular tub with a handheld shower head so I don't see why it couldn't also have a door.  Makes it a bit awkward if someone is in the bedroom when somewhere needs to use the bathroom).  Mattresses could have been a bit more firm, but these are personal choices.  There are TV's in the living room and both bedrooms.  Kitchen was stocked with dinnerware, utensils and pots and pans and had a nice size fridge with ice-maker, micro, coffeemaker, and cooktop.  The entire staff we encountered during our 3 night stay was very friendly, helpful and courteous.  In fact, hubby had already unloaded the truck to a cart while I was checking in and found out our room was around back.  So that he did not have to re-load the truck, Johnny at the front desk got one of the maintenance crew to wheel the cart back to our suite.  And the young man delayed eating his lunch to do just that!  We were looking for a local seafood place to eat on Saturday night, and Brian, who is born and raised in Covington, is THE expert on where to eat and not eat!  He recommended New Orleans Food and Spirits and we were not disappointed (will review that separately).Liked the fact that a portion of the parking lot is gated and you can only get in with your room key and we were staying in this gated section...liked the feeling of a little extra security!  Nice grounds with a number of sitting areas.  Indoor/outdoor pool.The hotel has a restaurant on site and we were given vouchers each morning for breakfast.  The free breakfast consisted of 2 eggs scrambled or fried, sausage or bacon, potatoes or grits, white or wheat toast (can't remember if there was a choice of toast or biscuits), coffee or apple or orange juice.  Quite a big breakfast!The restaurant is open all day and we had the mushroom Swiss burger (so big and thick and cooked to our preference) and seasoned fries for lunch on the day we arrived!  Some might consider it a bit pricey, but price listed includes taxes and portions are not at all small!We would definitely stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r468290772-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -552,9 +702,6 @@
     <t>As I continue to travel throughout Louisiana, I experience hotels and restaurants that are worthy of mention... good, bad or ugly. The Clarion Inn in Covington, LA deserves mention. The staff at this woefully outdated hotel is great. They do what they can with this outdated tool. Apparently, the owner lives in Hawaii and some staff members have never met the owner. I'm not surprised. The facility is in need of renovation big time.  Having a swimming pool in what is in essence the hotel's lobby is odd. The smell chlorine when its humid is ...well...odd. Now if you have lots of kids or your spring break group of college  kids have chosen to stay there...well...any damage either group would do to the facility might hasten the decision to renovate. Who am I kidding. ...NOT. So kids knock yourselves out, college kids party hardy. The day of reckoning for this outdated facility is at hand.More</t>
   </si>
   <si>
-    <t>Robert H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r466533955-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -579,9 +726,6 @@
     <t>Had to Get out of town fast because of snow and we didn't want to miss out cruise in New Orleans. The hotel is about 40miles north of New Orleans in a nice area. We got in late around 10:45pm and the night clerk was very nice and had the paperwork already done for us. The suite was large enough to sleep all 4 of us and then sum. The breakfast was free and it's in a restaurant that is inside the hotel. We where at the hotel the same time as a wedding so service was a little slow. They have 2 swimming pools inside and out heated, workout room and a business center if needed. We got the king suit last minute @$144 a night. Reasonable price for the area. Other hotel for the night last minute where from $129-209 a night. The hotel had plenty of secured parking inside a gate. The suites are in the back of the hotel away from the other room!! If your in Covington and need a place to stay give them a shot!!More</t>
   </si>
   <si>
-    <t>Mac M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r433672513-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -609,9 +753,6 @@
     <t>Was working in Baton Rouge travelling back through Covington and needed a room. Stopped at the Clarion and turned out to be a blessing to these tired bones. The personnel at the counter are more than cordial and pleasant to speak to. This was a very busy time that I had arrived so the gentleman went above and beyond to find me the last room (thankfully someone had just cancelled). Since I was coming in late he suggested to me that he set me up for a late checkout and it was very much needed. The rooms are very cozy and the beds beyond comfortable. The free breakfast in the morning also has very pleasant personnel greeting you for a great breakfast experience. The food was hot and very tasty. Overall I would highly suggest a stay at this hotel if you are tavelling close by.More</t>
   </si>
   <si>
-    <t>JZimmerman3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r431872955-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -630,9 +771,6 @@
     <t>I stayed here with my boyfriend and another couple. The front desk clerk was friendly and welcoming. Our rooms were clean and spacious and the bed was comfortable. The shower head in my room was a little low, so tall folks might have to bend down to wash their hair, but it wasn't an issue for me. Overall, I recommend this hotel.More</t>
   </si>
   <si>
-    <t>austin a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r410143424-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -660,9 +798,6 @@
     <t>I ended up staying in this hotel after my hotel in Baton Rouge cancelled on me while I was flying down from Alaska.  Although I had to drive an hour each way (obviously not Clarion's fault) it was a nice enough hotel.  I had a suite which included a separate king bedroom and a pullout couch.  My kids were comfortable enough on the sofa bed.  The room also included a small kitchen including a two burner stove and full size refrigerator.  My girls really enjoyed the pool, which has both an indoor and outdoor section.  The only thing I didn't like was that although we had a suite, which accommodates 4 people, we only received vouchers for 2 breakfasts per day.  Not a major problem, but kind of annoying when we are paying more for the suite.  The breakfast itself was pretty basic.  Scrambled eggs, home fires/potato chunks, biscuits, sausage patties, and grits.  For the price (I think it was around $8 per person after the two free ones) it wasn't bad, but nothing to rave about.More</t>
   </si>
   <si>
-    <t>hr4sell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r409717435-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -690,9 +825,6 @@
     <t>We always stay there when we come in for our family reunion . They have a large lobby. Some of the family came over to swim . The weather got bad . Lighting and all. They close the pool for our safety . So instead we had a pizza party and the front manager ask if minded if he turned up the music ALITTLE . It was such a good time . 10:00 lights out . Very nice people . There pool is inside and outMore</t>
   </si>
   <si>
-    <t>dazeandamazeme</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r398451568-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -720,9 +852,6 @@
     <t>Ours was just a quick out of town trip with the grand babies.  We wanted to just get away and relax and spend a little good old fashioned quality time together. This is the PERFECT place for leisure or business.  The hotel has a very large beautiful Atrium with an indoor heated pool which is connected to the outside pool by an underwater entrance. The indoor pool is an even 4 feet all over and the outside pool starts at 4 feet and slopes down to 7 feet at the deep end.  My girls were fascinated by the fact that they could swim under the wall and go back and forth.  The Atrium is beautiful and perfect for family talks, board games, cards, business or just relaxing.  The entire property is beautiful and the staff always greeted us with a smile and were very friendly and professional.  Our room was a suite, which is located in the back of the property.  These suites are AWESOME!  The girls decided that we could just live there.  Our room had 2 bedrooms (1 king and 1 with 2 double beds) and 2 full bathrooms.  The beds are extremely comfortable and the pillows were to die for and lots of them. The bathrooms were also stocked with plenty of towels and toiletries.  The rooms were above and beyond anything we expected. They are actually apartment sized and very clean.  The kitchen is stocked with...Ours was just a quick out of town trip with the grand babies.  We wanted to just get away and relax and spend a little good old fashioned quality time together. This is the PERFECT place for leisure or business.  The hotel has a very large beautiful Atrium with an indoor heated pool which is connected to the outside pool by an underwater entrance. The indoor pool is an even 4 feet all over and the outside pool starts at 4 feet and slopes down to 7 feet at the deep end.  My girls were fascinated by the fact that they could swim under the wall and go back and forth.  The Atrium is beautiful and perfect for family talks, board games, cards, business or just relaxing.  The entire property is beautiful and the staff always greeted us with a smile and were very friendly and professional.  Our room was a suite, which is located in the back of the property.  These suites are AWESOME!  The girls decided that we could just live there.  Our room had 2 bedrooms (1 king and 1 with 2 double beds) and 2 full bathrooms.  The beds are extremely comfortable and the pillows were to die for and lots of them. The bathrooms were also stocked with plenty of towels and toiletries.  The rooms were above and beyond anything we expected. They are actually apartment sized and very clean.  The kitchen is stocked with anything you need for a simple meal. There is a 2 eye stove, microwave, frig, and dishwasher with  a pantry for food storage.  Perfect for family get-aways or long term business trips.  The breakfast comes with the room.  Breakfast is a HOT MEAL not a bowl of cereal, muffin or fruit.   If you are planning a trip to Covington this IS the place to stay.  Plenty of places to eat and shop and walmart and movie theater are extremely close.    The rooms are only accessible through the front of the hotel or through a locked gate, so you don't have to worry about anything happening to your vehicle and we were completely comfortable letting the girls walk around the property and back and forth to the pool.  There is also a basketball court with a barbecue grill and picnic tables. I am so thankful we chose this property and got to experience what the grand babies said was "The Best Trip Ever" and I must say I agree.More</t>
   </si>
   <si>
-    <t>Frank D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r387256099-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -744,9 +873,6 @@
     <t>This is a really nice facility with indoor / outdoor swimming pool, gated access to parking, restaurant and lounge along with other facilities for conferences and parties.  Smoking rooms are available in a separate building and this is one of few facilities that still have smoking rooms. I stayed twice in a single week in 2 different rooms.  Both had problems with the TV - didn't bother me much because I'm not much of a TV watcher - but would have liked to catch one of the network morning shows while getting ready for the day.  On my first stay, I called the desk and they sent a guy to fix the TV, but after turning it off, I needed to re-do the fix when I turned it on again.  The second time when it didn't work to begin with, it wasn't worth the effort to have it checked out.  The wi-fi internet service was good and I used my laptop to watch the evening news.  Very competitive room price during the week (especially with Senior Discount) but prices jump significantly for the weekend.  The included breakfast is definitely first rate.More</t>
   </si>
   <si>
-    <t>larirenee74</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r378425841-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -765,9 +891,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Lesbas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r376501708-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -781,9 +904,6 @@
   </si>
   <si>
     <t xml:space="preserve">Last minute stay in the New Orleans area turned into a great stay. The hotel was a big surprise, much larger and extensive than any other around. The staff is helpful and friendly. Small buffet breakfast was good if not particularly hot and refreshed. </t>
-  </si>
-  <si>
-    <t>Anonymous N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r367997840-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -800,7 +920,7 @@
   <si>
     <t>Our stay at the Clarion Inn and Suites in Coventry, Louisiana was a little like stumbling into old castle in which the owners have long since left, but the staff stay on and take care of people who happen by. Maintenance seemed to be an issue, but the pool was a real highlight. The employees were kind and sincere but sometimes they seemed a little bit confused or unfamiliar with their job. Overall, they did their best to address the problems that we had, which we appreciated. Here are the details:
 The facility has an unusual layout. It is quite large, though only 2 stories high, with a cavernous lobby lined with rooms that open to the inside. Most everything is gray, beige, or muted green, which contributes to a dated look and a slightly depressing air. The place is located on US 190, in a very busy commercial area. But inside the gates of the Clarion, it is very quiet. The day we were there, the parking lot was almost empty and a large number of rooms were unoccupied – to the point where it seemed a little spooky. 
-When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we...Our stay at the Clarion Inn and Suites in Coventry, Louisiana was a little like stumbling into old castle in which the owners have long since left, but the staff stay on and take care of people who happen by. Maintenance seemed to be an issue, but the pool was a real highlight. The employees were kind and sincere but sometimes they seemed a little bit confused or unfamiliar with their job. Overall, they did their best to address the problems that we had, which we appreciated. Here are the details:The facility has an unusual layout. It is quite large, though only 2 stories high, with a cavernous lobby lined with rooms that open to the inside. Most everything is gray, beige, or muted green, which contributes to a dated look and a slightly depressing air. The place is located on US 190, in a very busy commercial area. But inside the gates of the Clarion, it is very quiet. The day we were there, the parking lot was almost empty and a large number of rooms were unoccupied – to the point where it seemed a little spooky. When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we were happy with the room we got. It was clean, comfortable and all the furnishings looked pretty new. We did not spend any time in the room after checking in, but went straight to dinner. Coming back rather late (about 10:30 pm) we discovered a problem with the toilet. When I called the front desk, the clerk sent a maintenance person up to our room.  He could not fix the problem and since it was late and we were somewhat unpacked, he arranged to have us use the adjoining room’s bathroom. (It was also empty and a door connected the two rooms.) This was a good solution to the problem but obviously we would have preferred not to have the problem in the first place. While the maintenance person was there, we also pointed out that the smoke detector was disabled and the battery needed to be replaced, and that the top lock on the door was broken. He fixed the smoke detector and said he would make note of the lock. We decided that was OK - we were not going to worry about it too much, because there was also a deadbolt and an electronic lock. Once we were finally settled in for the night, everything was fine. The next morning we got up and went to the breakfast. The Clarion provides...MoreShow less</t>
+When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we...Our stay at the Clarion Inn and Suites in Coventry, Louisiana was a little like stumbling into old castle in which the owners have long since left, but the staff stay on and take care of people who happen by. Maintenance seemed to be an issue, but the pool was a real highlight. The employees were kind and sincere but sometimes they seemed a little bit confused or unfamiliar with their job. Overall, they did their best to address the problems that we had, which we appreciated. Here are the details:The facility has an unusual layout. It is quite large, though only 2 stories high, with a cavernous lobby lined with rooms that open to the inside. Most everything is gray, beige, or muted green, which contributes to a dated look and a slightly depressing air. The place is located on US 190, in a very busy commercial area. But inside the gates of the Clarion, it is very quiet. The day we were there, the parking lot was almost empty and a large number of rooms were unoccupied – to the point where it seemed a little spooky. When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we were happy with the room we got. It was clean, comfortable and all the furnishings looked pretty new. We did not spend any time in the room after checking in, but went straight to dinner. Coming back rather late (about 10:30 pm) we discovered a problem with the toilet. When I called the front desk, the clerk sent a maintenance person up to our room.  He could not fix the problem and since it was late and we were somewhat unpacked, he arranged to have us use the adjoining room’s bathroom. (It was also empty and a door connected the two rooms.) This was a good solution to the problem but obviously we would have preferred not to have the problem in the first place. While the maintenance person was there, we also pointed out that the smoke detector was disabled and the battery needed to be replaced, and that the top lock on the door was broken. He fixed the smoke detector and said he would make note of the lock. We decided that was OK - we were not going to worry about it too much, because there was also a deadbolt and an electronic lock. Once we were finally settled in for the night, everything was fine. The next morning we got up and went to the breakfast. The Clarion provides two complimentary breakfasts per room, served in a restaurant on site. Since we had three people in our group, this worked out OK, but not great. Again, the dining area was quite empty. We shared the two breakfasts – which were set “plates” of eggs, sausages and sides, and ordered a few more things off the menu to feed our whole group. The food was not especially good, but it was inexpensive. So, if you just want something basic and cheap, breakfast on site would probably be OK.  Otherwise you may want to go somewhere else. The pool was a highlight of our stay. The swimming area is quite large. Half of the pool is indoors and half is outdoors – which was really cool - and the two sides are connected such that you can swim under a divider from one side to the other. The water was really a nice temperature, on the warm side, and I think it was saltwater. It was easy on the eyes and there was no chlorine smell. There was plenty of seating around the pools and towels were stocked nearby.  Once again, it was just us. The outside portion of the pool had beautiful landscaping and a big wall of jasmine in bloom that smelled great. The pool also had a true deep end (7-8 feet), which you often don’t find these days at hotels. We really enjoyed this amenity!Or checkout was uneventful. As I was leaving, I asked about a water fountain to fill up a water bottle and they said they did have one! Wow – how is that even possible in this huge, institutional like facility?! This place just seemed full of contradictions.MoreShow less</t>
   </si>
   <si>
     <t>April 2016</t>
@@ -808,10 +928,7 @@
   <si>
     <t>Our stay at the Clarion Inn and Suites in Coventry, Louisiana was a little like stumbling into old castle in which the owners have long since left, but the staff stay on and take care of people who happen by. Maintenance seemed to be an issue, but the pool was a real highlight. The employees were kind and sincere but sometimes they seemed a little bit confused or unfamiliar with their job. Overall, they did their best to address the problems that we had, which we appreciated. Here are the details:
 The facility has an unusual layout. It is quite large, though only 2 stories high, with a cavernous lobby lined with rooms that open to the inside. Most everything is gray, beige, or muted green, which contributes to a dated look and a slightly depressing air. The place is located on US 190, in a very busy commercial area. But inside the gates of the Clarion, it is very quiet. The day we were there, the parking lot was almost empty and a large number of rooms were unoccupied – to the point where it seemed a little spooky. 
-When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we...Our stay at the Clarion Inn and Suites in Coventry, Louisiana was a little like stumbling into old castle in which the owners have long since left, but the staff stay on and take care of people who happen by. Maintenance seemed to be an issue, but the pool was a real highlight. The employees were kind and sincere but sometimes they seemed a little bit confused or unfamiliar with their job. Overall, they did their best to address the problems that we had, which we appreciated. Here are the details:The facility has an unusual layout. It is quite large, though only 2 stories high, with a cavernous lobby lined with rooms that open to the inside. Most everything is gray, beige, or muted green, which contributes to a dated look and a slightly depressing air. The place is located on US 190, in a very busy commercial area. But inside the gates of the Clarion, it is very quiet. The day we were there, the parking lot was almost empty and a large number of rooms were unoccupied – to the point where it seemed a little spooky. When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we were happy with the room we got. It was clean, comfortable and all the furnishings looked pretty new. We did not spend any time in the room after checking in, but went straight to dinner. Coming back rather late (about 10:30 pm) we discovered a problem with the toilet. When I called the front desk, the clerk sent a maintenance person up to our room.  He could not fix the problem and since it was late and we were somewhat unpacked, he arranged to have us use the adjoining room’s bathroom. (It was also empty and a door connected the two rooms.) This was a good solution to the problem but obviously we would have preferred not to have the problem in the first place. While the maintenance person was there, we also pointed out that the smoke detector was disabled and the battery needed to be replaced, and that the top lock on the door was broken. He fixed the smoke detector and said he would make note of the lock. We decided that was OK - we were not going to worry about it too much, because there was also a deadbolt and an electronic lock. Once we were finally settled in for the night, everything was fine. The next morning we got up and went to the breakfast. The Clarion provides...More</t>
-  </si>
-  <si>
-    <t>DruckersTravel4Fun</t>
+When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we...Our stay at the Clarion Inn and Suites in Coventry, Louisiana was a little like stumbling into old castle in which the owners have long since left, but the staff stay on and take care of people who happen by. Maintenance seemed to be an issue, but the pool was a real highlight. The employees were kind and sincere but sometimes they seemed a little bit confused or unfamiliar with their job. Overall, they did their best to address the problems that we had, which we appreciated. Here are the details:The facility has an unusual layout. It is quite large, though only 2 stories high, with a cavernous lobby lined with rooms that open to the inside. Most everything is gray, beige, or muted green, which contributes to a dated look and a slightly depressing air. The place is located on US 190, in a very busy commercial area. But inside the gates of the Clarion, it is very quiet. The day we were there, the parking lot was almost empty and a large number of rooms were unoccupied – to the point where it seemed a little spooky. When we checked in, it took a few tries to get the right room. This was our first clue about the number of empty rooms because the clerk gave us 3 different ones to check out before we were settled. The clerk was patient and nice throughout and ultimately we were happy with the room we got. It was clean, comfortable and all the furnishings looked pretty new. We did not spend any time in the room after checking in, but went straight to dinner. Coming back rather late (about 10:30 pm) we discovered a problem with the toilet. When I called the front desk, the clerk sent a maintenance person up to our room.  He could not fix the problem and since it was late and we were somewhat unpacked, he arranged to have us use the adjoining room’s bathroom. (It was also empty and a door connected the two rooms.) This was a good solution to the problem but obviously we would have preferred not to have the problem in the first place. While the maintenance person was there, we also pointed out that the smoke detector was disabled and the battery needed to be replaced, and that the top lock on the door was broken. He fixed the smoke detector and said he would make note of the lock. We decided that was OK - we were not going to worry about it too much, because there was also a deadbolt and an electronic lock. Once we were finally settled in for the night, everything was fine. The next morning we got up and went to the breakfast. The Clarion provides two complimentary breakfasts per room, served in a restaurant on site. Since we had three people in our group, this worked out OK, but not great. Again, the dining area was quite empty. We shared the two breakfasts – which were set “plates” of eggs, sausages and sides, and ordered a few more things off the menu to feed our whole group. The food was not especially good, but it was inexpensive. So, if you just want something basic and cheap, breakfast on site would probably be OK.  Otherwise you may want to go somewhere else. The pool was a highlight of our stay. The swimming area is quite large. Half of the pool is indoors and half is outdoors – which was really cool - and the two sides are connected such that you can swim under a divider from one side to the other. The water was really a nice temperature, on the warm side, and I think it was saltwater. It was easy on the eyes and there was no chlorine smell. There was plenty of seating around the pools and towels were stocked nearby.  Once again, it was just us. The outside portion of the pool had beautiful landscaping and a big wall of jasmine in bloom that smelled great. The pool also had a true deep end (7-8 feet), which you often don’t find these days at hotels. We really enjoyed this amenity!Or checkout was uneventful. As I was leaving, I asked about a water fountain to fill up a water bottle and they said they did have one! Wow – how is that even possible in this huge, institutional like facility?! This place just seemed full of contradictions.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r364693805-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -829,9 +946,6 @@
     <t>Hotel was restored and has an indoor pool.  It also has a nice meeting room to hold a meal business meeting. Hotel uses an outside caterer and the breakfast is pretty good. Parking is limited, but is next door to Dakota Restaurant which is higher end. Restoration still does not change the old style layout of the old hotel.  The parking lot has an iron gate and fence around it for security which is a new addition. Hotel is clean and functionally fits the need for a place to hang your head at night.</t>
   </si>
   <si>
-    <t>IheartDisney1977</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r345990382-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -853,9 +967,6 @@
     <t>This was second time staying at this hotel.   The first time, around this time last year, was wonderful.   We had a interior double room and it was awesome.   This time when we checked in the clerk asked if he could "upgrade" us to a "suite".   What a horrible mistake, the "suites" are in the back of the hotel in a seperate building that is falling apart, dark and smells of mold.   Our room was old and not updated.   The kitchenette was nice to have but we didn't use it so I really can't comment on it other than to say the door handle of the refrigerator had broken off and they replaced it with drawer knob pulls.   The bottom drawer of the cabinet was broken.   Our room had a king bed and a pull out sofa bed;  The sofa and chair were very uncomfortable to sit on.  This will probably be our last stay at this hotel.More</t>
   </si>
   <si>
-    <t>Rebecca M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r345966821-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -871,9 +982,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>adventurer478</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r337027334-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -901,9 +1009,6 @@
     <t>We had a clean and spacious suite in a separate on-site building. It was rainy when we stayed, so it was a pain walking outside from our building to the main hotel. The breakfast was in the hotel restaurant, but still free. Good food. The pool area was bustling and the water was warm.More</t>
   </si>
   <si>
-    <t>Karla K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r324020478-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -931,9 +1036,6 @@
     <t>Let me just say that I have had mixed results with Clarion. This property, however exceeded my expectations. The staff was responsive, the breakfast (although limited in selection) was cooked to perfection and our room was very clean. We stayed here because someone else madethe reservation for us and we were pleasantly surprised. We will recommend this property to all our friends and out of town guests.More</t>
   </si>
   <si>
-    <t>Lauren D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r311349904-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -949,9 +1051,6 @@
     <t>The staff was very accommodating and kind. The atmosphere was very relaxing and had a great energy. Just like all of the other reviews say, the breakfast was pretty amazing! The pricing cannot be beat, either. I went during the last week of April for my birthday and had a WONDERFUL experience. We are returning in November again and will not stay anywhere else!</t>
   </si>
   <si>
-    <t>Mfamily1994</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r293360868-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -979,9 +1078,6 @@
     <t>Spent a night in the 2 room suite which has a small kitchen.  Front desk was okay at check-in.  I was informed that the "free breakfast" was only for 2 people per room, which wasn't a big deal since we already had breakfast plans.  The 2 room suites were in a separate building which was quiet and secluded, but it had old, somewhat smelly carpet in the hallways.  We were on the 2nd floor, and there was no elevator which seemed weird.  The room was pretty clean overall, but it seemed old and cheap and there were 2 roaches that we had to take care of.  3 flatscreen TV's with cable were nice.  Free wifi with good speed.  Bathroom was old and the tub was very small.  Indoor/outdoor pool was nice, but the pool furniture was old, and they had the little gym/hand towels for use, which are not the same as beach towels.Overall, I think there are newer, nicer places for $229 which we paid.  More</t>
   </si>
   <si>
-    <t>ramblinrose61</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r291440261-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1006,9 +1102,6 @@
     <t>Stayed at this Inn coming and going to Flordia,  both visits were a great experience,  we had one small issue which was addressed and solved to exceed our satisfaction. I will stay here again. Beds are comfortable,  rooms are clean, indoor/outdoor pool, full breakfast is included, there is a restaurant with a full bar on site, portions are generous. More</t>
   </si>
   <si>
-    <t>Rulby76</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r270151658-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1033,9 +1126,6 @@
     <t>We stopped here the day before a cruise.  I liked the place.  The lobby was outdated but charming.  Nice indoor and outdoor pools.  The room was clean and nice.  We couldn't lock the door between the next room so we piled up the chair and luggage.  it was late and I just wanted to sleep!  The next morning we stopped in for breakfast.  Two free breakfasts per room.  Not cool if you have a family!  The breakfast selection was sad.  There were only a couple of items.  No bagels, toast, cereal...even no little waffle maker.  There was syrup tho.  Not sure what it was for.  I would stay there again.  It seemed like a safe neighborhood even though most of the parking lot is gated.More</t>
   </si>
   <si>
-    <t>Alexis K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r262513129-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1063,9 +1153,6 @@
     <t>My husband and I stayed at this hotel while researching apartments.   The room was clean and comfortable.  The staff was courteous and helpful. Check-in and check-out was quick and easy.  The hotel is close to many restaurants. The parking gate was a wonderful plus! I would recommend this hotel!More</t>
   </si>
   <si>
-    <t>Christina B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r260299913-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1084,9 +1171,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Brad W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r240909525-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1108,9 +1192,6 @@
     <t>I normally don't like to give one star reviews because it seems extreme, but this place was deserving. The front desk clerk didn't even know how to check me in. She was very sweet but untrained and clueless and I had to wait while she went for help for a standard check-in. Claimed to have gated parking and or security but the gates stayed wide open all night long. It was supposed to be code entry only. No elevator because it's an exterior complex, front desk offers no bell service so be prepared to lug your baggage up flights of stairs. The only light available in the rooms were lamps and one want functional. It was nicely furnished and the bed was comfortable. Room was clean. The outside of the property needs repairs and or updates. Once I was in the room minus the lamp the stay was generally ok. The room did have an old musty smell which required a perfume cover-up. Definitely would not stay again.More</t>
   </si>
   <si>
-    <t>Charlie1777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r240532016-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1132,9 +1213,6 @@
     <t>My bf and I were in town for a training for a day. We booked this hotel before seeing it and upon arriving I was disappointed because it did not look as nice as the ones in the vicinity. It is also located next to a gas station. Once inside, the hotel is actually much nicer than I would have imagined. There is an indoor/outdoor pool. Breakfast was my favorite part!  The only bad side our room was in a section where for some reason people stopped right outside our room to talk and smoke. Also, I lost my prescription glasses, I think I left them at our room. Both my bf and I remember seeing them last in there. They were in their black case. I called the hotel several times and they said they did not have anything. There is good shopping just a few minutes away. There is also a movie &amp; dinner place just down the street.More</t>
   </si>
   <si>
-    <t>potterypeople</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r240423532-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1150,9 +1228,6 @@
     <t>Loved this hotel. It seems bigger on the inside that it looks from the outside. Lobby décor was fab. All staff super nice and helpful. Indoor and  outdoor pools exercise room and more.Bedding was super comfortable. Two types of pillows to choose from on the king bed. 2 down and 2 foam.  They are all nice! The sheets were so clean and crisp. We both got nice restful sleep.  The free, cooked to order, breakfast was really good. They use real eggs...none of that pasteurized crap.  We will certainly stay here again when business brings us back.</t>
   </si>
   <si>
-    <t>Taylor526</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r238767722-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1171,9 +1246,6 @@
     <t>We made a reservation here the day-of when we decided we wanted to stay in the New Orleans area Friday night. Our room in the French quarter was only reserved through Thursday night, and last-minute bookings everywhere were outrageous for a Friday night. The Clarion is a good 50 minute drive over the lake, but the drive is gorgeous. We arrived late in the evening, everything was quiet, and the woman who checked us in at the front desk was very professional and polite. When we got to our room, I wanted to stay forever. For $82/night I wasn't expecting much, but the room was so clean and stuffed with amenities. The king sized bed was extravagantly comfortable. My only complaint would be the design of the shower, which plugs the bath tub when you turn the shower on- but I'm willing to chalk that up to user-error. The complimentary breakfast was a huge, fresh plate of eggs, bacon, potatoes and toast. We were starving and neither of us could completely clean the plate. Stay here! Don't let the brand name of other hotels lure you away. It seems like the Clarion Inn has something to prove and I'm convinced!!  More</t>
   </si>
   <si>
-    <t>FrequentTraveler696</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r238196988-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1198,9 +1270,6 @@
     <t>This is a great motel.  Our room and bathroom was in excellent condition.  Everything was very clean and in good working order.  There is a very nice restaurant that is part of this motel/convention center complex.  The complementary breakfast is served in the restaurant and consists of two eggs, hash browns, toast, bacon and juice or coffee.  Everything we had was very tasty.  Everything in this place is well maintained including the gym equipment and the two swimming pools.  The staff was so friendly and helpful.  There is a security gate to gain access to the parking area and one of the things we really like about this motel, is parking right outside our room (old style complex).   It is so much handier than the newer motels where we have to walk down a long hall, down some stairs, out to the parking lot, back to the door, find our pass to get back into the building, up some stairs and another long walk down a hall to a room.  We loved everything about this motel!  We'll definitely be back if in this area.More</t>
   </si>
   <si>
-    <t>Viviane E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r237867611-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1222,9 +1291,6 @@
     <t>I have stayed twice in this hotel, and I can say that every time I'll have to spend the night around I will make the extra mile or shorten the trip for the pleasure of staying in this facility. The staff is very nice, the rooms clean, comfortable and quiet, and the parking is secured and gated. Breakfast is served in a nice dining room, and you can choose from complimentary or a menu.  All that is giving you a nice experience of the area. I would recommend it to my friends.More</t>
   </si>
   <si>
-    <t>Peggy R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r237402006-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1246,9 +1312,6 @@
     <t>If you're looking for a nice, clean, quiet, comfortable place to rest your body while you're in the area, this is it.  It's not far from Interstate 12.  The hotel is old, but has been very well maintained and recently updated.  I've traveled a LOT (US, Canada and overseas) and have spent many a night in hotels...  Our bed?  Might be the nicest one I've ever slept in!  Pillow are awesome, but small, so ask for a few extras if you're a pillow lover.  The towels are good - not high luxury quality - but good.  This was originally a Holiday Inn, the "big ones" with the covered atrium area.  Our room was in the atrium area (versus outside) and it was very quiet.  They have a restaurant and bar, as well.  We ate breakfast both mornings we were there and it was quite delicious.  Everyone on the staff was exceptionally nice.  We will definitely stay here again if in the area.More</t>
   </si>
   <si>
-    <t>James B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r232980078-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1273,9 +1336,6 @@
     <t>I stayed here for one night.  The gated community is nice, a tad bit annoying but it makes one feel more secure to an extent.  I was really impressed on how the hotel was renovated from an older model motel to a really nice semi-fancy accommodating hotel.  The rooms were very nice and upgraded.  The lobby, weight area, and pool were great.  There's even a basketball court in the back (a first).  The bed was comfortable and I thoroughly enjoyed the rotating settings on the shower head.  I would stay here again.My only draw back is the option for breakfast.  There is a complimentary breakfast in the hotel restaurant.  The eggs left something to be desired.More</t>
   </si>
   <si>
-    <t>Dmj938</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r223351303-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1300,9 +1360,6 @@
     <t>Four of us spent 6 days in a two bedroom two bathroom suite. Rooms were very nice, spacious and clean . Pool was very nice, staff was very pleasant. Breakfast every morning was good just wish it could of  had a variety, six days of scrambled eggs, sausage and biscuits was good but after a few days I had had enough of the same breakfast.More</t>
   </si>
   <si>
-    <t>Jeff R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r216920646-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1328,9 +1385,6 @@
   </si>
   <si>
     <t>The curb appeal of this place does not do it justice. The lobby is an atrium which includes the front desk, a indoor/outdoor pool, a work out room, and nice lobby with a fire place. We were placed in a room that opened to the atrium. It was nicely redone and very comfortable. The atrium closes at 10:00pm so late night noise isn't a problem. The full breakfast from the hotel restaurant is nice and included in the hotel cost. It is not pricy at all for the amenities it has. The staff was friendly and helpful.More</t>
-  </si>
-  <si>
-    <t>ChinaBlessings</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r215540451-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -1353,9 +1407,6 @@
 The walk to breakfast wasn't as bad as other reviews stated but the reviews that raved about the breakfast???  not sure what they were offered because our breakfast was less than desirable.   The restaurant was closed to the public and only available to hotel guests so maybe it wasn't the same breakfast everyone else enjoyed during their stay?  We were offered scrambled eggs,  sausage links, fried potatoes, biscuits and grits.  The eggs were a powder mix, the sausage was barely warm, the potatoes were okay but reminded me of...Hotel staff was awesome at check in with fast and friendly service!  We needed extra towels and the staff had them to our room in no time at all!  We had a suite that was so-so at best.  While we had no plans to use the kitchen during our overnight stay, it was nice to have the extra space.  The pull out couch was pretty uncomfortable so we put the mattress on the floor, same with the roll-a-way bed.  (Found it odd that there were no extra blankets or pillows in the room for the pull out.  Plenty of pillows on the king sized bed so we didn't call for more however we should have called for the blanket.)  Mildew was pretty bad in the bathroom and the toilet stuck on if it wasn't flushed just right.  It also leaked around the bottom with each flush, (probably needed a new seal).The walk to breakfast wasn't as bad as other reviews stated but the reviews that raved about the breakfast???  not sure what they were offered because our breakfast was less than desirable.   The restaurant was closed to the public and only available to hotel guests so maybe it wasn't the same breakfast everyone else enjoyed during their stay?  We were offered scrambled eggs,  sausage links, fried potatoes, biscuits and grits.  The eggs were a powder mix, the sausage was barely warm, the potatoes were okay but reminded me of curly fries, the biscuits were dry and I didn't try the grits.  No waffles, fruits, yogurts, pastries or breads were offered. Check out was fast and painless!More</t>
   </si>
   <si>
-    <t>Krissi D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r212676931-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1380,9 +1431,6 @@
     <t>Everything was awesome. The rooms were clean. The breakfast is amazing. The pools felt so good. We loved the free wifi. The rooms had a very nice setup. The workers were very helpful and nice. Its in a wonderful area. Not far away from New Orleans, maybe 30 miles. I recommend this hotel to anybody.More</t>
   </si>
   <si>
-    <t>naynay39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r212233482-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1404,9 +1452,6 @@
     <t>This was an excellent choice! Started off with excellent customer service at the front desk. We had to use our room card to enter the parking gate area. Our room was spacious, clean, and our bed was comfortable! We will definitely stay here again as we frequently travel FL-TX.More</t>
   </si>
   <si>
-    <t>bs0549</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r211981539-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1428,9 +1473,6 @@
     <t>The hotel set up is strange. More like an apartment complex, than a hotel. No security. Gate to back property left open.Our room was in the back, needed some up dating and fresh paint. Layout of the two room suite was nice. Sofa sleeper not bad. Had to drive to the front of the property for breakfast.More</t>
   </si>
   <si>
-    <t>AnthonyLaneRawlings</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r201862020-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1458,9 +1500,6 @@
     <t>The indoor and outdoor pools are a huge plus. Having a guest laundry and free WiFi are a few others. Breakfast is included but through WOW Cafe which is good but not real fast. The staff was helpful, friendly, knowledgeable about the area and hospitable. Great impression for my first Clarion stay!  I will return. Thank you!! More</t>
   </si>
   <si>
-    <t>Bayou Cousin A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r201787876-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1476,9 +1515,6 @@
     <t>After having issues at the Hilton Garden Inn down the street from this location, we came to this hotel and were treated as a guest should be and we enjoyed our time we spent here and the community surrounding this hotel. There are amenities such as a Cafe Dumond to start your day and a local Acme Oyster bar for an awesome taste of Cajun cuisine. Thank you for a great stay with excellent customer service. More</t>
   </si>
   <si>
-    <t>Gl64</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r197678584-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1506,9 +1542,6 @@
     <t>I stayed here with my wife during a basketball tournament because all of the rooms in New Orleans were booked. I wasn't expecting such a beautiful lobby and indoor swimming pool! We checked in late and the night manager was so accommodating and friendly and gave us some activities to find during the day with the kids. The breakfast was also great! If I'm ever in town again that's where I'll be staying. Thanks Clarion for the wonderful experience :-)More</t>
   </si>
   <si>
-    <t>kccarlson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r197666076-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1527,9 +1560,6 @@
     <t>Somewhat disappointed, as we had made the reservation by phone, and were told our king bed suite would have a sofa bed or we could get a hide-a-bed for the children.  Received a regular king room.  No room for hide-a-bed.  So, rented separate room for the children; they loved this, obviously.  Given the fair rates, this wasn't a huge problem.  Indoor-outdoor pool = HUGE hit with the children.  Breakfast selection very limited - eggs, sausage, biscuits, and either grits or potatoes.  No fruit, cereal, pastries, or yogurt.  Very happy, and would stay here again if in the NOLA area.More</t>
   </si>
   <si>
-    <t>BlessedTraveler187</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r197488643-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1542,9 +1572,6 @@
     <t xml:space="preserve">We stayed one night at the clarion. Check in was smooth. Our room overlooked the pool. The room had a microwave and a refrigerator. The beds were not very comfortable. The hotel restaurant  was nice for dinner and the food was good although the staff was a little slow.  The breakfast buffet was ok. (Biscuits, eggs, sausage and potatoes) </t>
   </si>
   <si>
-    <t>TomTexan1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r182859768-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1566,9 +1593,6 @@
     <t>This location is apparently on the verge of closing. The vines on fence around pool have not been cut back in a year or more.  The gates to the parking lot are suppose to open only if you have a room key.  Well one of the two was wide open even at night.  At the first room we were assigned the electronic key would flash green but door would not open.  So they moved us to another room. A/C was broken and would only operate on coldest setting, they did come fix that. The TV was a flat screen but very dim, all room lights had to be off to view screen.More</t>
   </si>
   <si>
-    <t>Jeffn92</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r177437812-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1584,9 +1608,6 @@
     <t xml:space="preserve">Great place to stay. The staff here was extremley nice and very Accommodating. Room was very clean and bed was super Comfortable. I ate at the Wow resturant and bar at the hotel and the food was great and well priced. I will Definitely be staying here again. </t>
   </si>
   <si>
-    <t>Hthompson8113</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r175470521-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1603,9 +1624,6 @@
   </si>
   <si>
     <t>We came here on short notice, we originally were just going to stay 1 night and ended up staying 2 nights. The pool was awesome. The pictures show a hot tub but there isn't one. The breakfast was decent, it wasn't the worst and it wasn't the best. Does the trick for a free breakfast. Service for breakfast was a bit slow and the server didn't really seem to know what she was doing, forgot a lot of simple things but over all the experience was great. The beds were very comfy, the room looked good, the property looked good and the drinks were awesome from the bar (bloody mary with bacon!?) I would stay here again and plan on it when I'm down that way again. Two thumbs up! Doesn't hurt that there's a lot of things, gas station, some restaurants and daiquiri place within walking distance if you don't mind walking.More</t>
-  </si>
-  <si>
-    <t>DalTx214</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r167583137-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -1639,9 +1657,6 @@
 In lieu of a continental breakfast, the hotel provides daily vouchers for a hot full breakfast at the attached restaurant. (Use the voucher as a credit toward other menu items, such as granola, a fruit bowl or their...This is an old-school motel with more amenities and class than you might notice by looking at it from the street. It's an excellent property for the business or leisure traveler.The courtyard of the main building is covered, providing comfortable seating areas. The interior courtyard also includes a nice workout facility (plus changing rooms) and the indoor half of a huge indoor/outdoor pool. My room opened onto this interior courtyard. Despite activities in the courtyard, my room was surprisingly quiet and private. (Management is super-strict about limiting activities in the courtyard after 10 p.m.)My room seemed recently redone and was immaculate. (Housekeeping kept it that way, too, every day of my 12-day stay.) The bed was very comfortable (with a choice of down or feather pillows), lighting was good for all uses, and the room was plenty big. The television channel lineup was extensive.Other rooms open to the exterior parking lot, but the building is surrounded by a substantial fence that requires a card key to access.There's a large exterior patio (where the outdoor pool connects with the indoor pool.) Plenty of patio lounge chairs and tables allow for sunbathing or card games and visiting by the pool.In lieu of a continental breakfast, the hotel provides daily vouchers for a hot full breakfast at the attached restaurant. (Use the voucher as a credit toward other menu items, such as granola, a fruit bowl or their breakfast burrito.) This works well in principle, but during several days of my stay the restaurant was understaffed or the kitchen was overwhelmed.Guests staying in exterior rooms may have a different experience, but I found this Clarion to be much more comfortable and much more upscale than I might have guessed by looking at it from the outside.More</t>
   </si>
   <si>
-    <t>liketwogo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r162785407-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1669,9 +1684,6 @@
     <t>Booked this hotel at last minute before driving into New Orleans the next day. For the price ($94) a decent value. You can tell this is an old property, but has been recently renovated. Room had outside access which concerned me until I found out there was a fence around the property and you had to use your room key to get in the parking lot. Room was typical of this older style hotel and only had a shower. Some rooms have tubs and they asked our preference at check in. Front desk staff was friendly and as good as any hotel I've stayed at. Would definitely stay again. More</t>
   </si>
   <si>
-    <t>bamasteve</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r148926773-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1688,9 +1700,6 @@
   </si>
   <si>
     <t>December 2012</t>
-  </si>
-  <si>
-    <t>Suzieshu</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r143164753-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -1721,9 +1730,6 @@
 Breakfast coupons were provided for the Sage Cafe in the hotel. It was a set breakfast which was fine. However they had one poor waitress working two of the 4 days we were there and it took a very long time. She was working as hard as she could and I felt very sorry for her....When we arrived I was underwhelmed- very odd layout in this renovated hotel. The entry and transition from the lobby to the old rooms was awkward. When we checked in we were given a first floor in the very back of the hotel. Outside entrance in what looked like an alley. When we entered the room it was very small and had no tub only a shower. They had obviously renovated an old hotel and the overall appearance was nice but it was still a Reno of an old hotel. We did. Of like the alley entrance and no tub and decided if we couldn't move to another room we would leave. We were given a room on the second floor overlooking the lobby/atrium. It had a tub and the same decor as the first room and we decided to stay. Overall the stay was fine. We were there with a group and everything went well. The rooms are on the small side including the bathroom.  The bed was very comfortable but the air conditioner was very noisy and seemed to run almost constantly.Breakfast coupons were provided for the Sage Cafe in the hotel. It was a set breakfast which was fine. However they had one poor waitress working two of the 4 days we were there and it took a very long time. She was working as hard as she could and I felt very sorry for her. The other two mornings two people were serving and it went much faster.It was an okay stay but will consider other hotels if in the area again.More</t>
   </si>
   <si>
-    <t>gordontgauthier</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r142991551-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1748,9 +1754,6 @@
     <t>Stayed here on several occasions and have never been disappointed. Housekeeping, front desk, and Resturant staff are all very nice and helpful. Nice free breakfast and all the coffee you can drink. Wouldn't stay anywhere else.More</t>
   </si>
   <si>
-    <t>jmwood73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r140294778-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1769,9 +1772,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Angel T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r138472394-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1787,9 +1787,6 @@
     <t xml:space="preserve">Great location just off the interstate with indoor and outdoor pool. Great place for family reunion or wedding party stay. Room includes breakfast but very little variety and the waitresses are HORRIBLE! Make sure you find out the real story on pet policy- conflicting info on website and most Choice properties accept pets but this one doesn't.  Hotel is clean and decor is updated. </t>
   </si>
   <si>
-    <t>lenkag24</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r134476778-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1808,9 +1805,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Aaronaverysmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r131827757-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1826,9 +1820,6 @@
     <t>Great clean rooms for a great price. Great hotel if you are traveling with small children which we were. It was a great stay.</t>
   </si>
   <si>
-    <t>Gottrips</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r127311632-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1865,9 +1856,6 @@
     <t>This hotel looks deceptively ordinary from the outside, but is top notch in every way!  Very updated decor, a lovely reception area with a cozy fireplace, heated indoor pool and fitness area.  Just gorgeous!  The room was beautiful, clean and had everything you would need: refrigerator, microwave, coffee maker, ironing board, hair dryer and desk.  Two things that usually bother me about hotels are dirty carpet and weak shower sprays.  This place doesn't disappoint in those areas either!  Actually found myself walking around barefoot in the room, something I NEVER do.  I will stay at this hotel again and again.  I would recommend the interior room if you want to swim and use the amenities. Lovely breakfast as well.  Great, great, great!!!More</t>
   </si>
   <si>
-    <t>Ricky B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r123209903-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1886,9 +1874,6 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>Pighunter1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r117866516-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1908,9 +1893,6 @@
   </si>
   <si>
     <t>This Clarion Hotel was a full service Holiday Inn a year or so ago.  It has been completely refurbished with new paint, carpet, furniture and televisions. The room I stayed in was a standard single King, non smoking.  It looked like everything in it was new and modern. It came with a microwave and small refridgerator. The TV was a flat screen and you could order movies on their system. Other than the room, the conference main room/ lobby is also all newly refurbished with flowing water and tables to sit and talk with friends, family or business associates.  This hotel has an inviting atmosphere, comfortable, clean rooms and the staff are friendly, courteous and seemed proffessionaly trained. For under $90.00 per night it is the perfect fit for travelers between the South East Coast states and the Houston/ San Antonio areas. It is now my new half way stop over point.More</t>
-  </si>
-  <si>
-    <t>fenwayman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r46099520-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -1942,9 +1924,6 @@
 I was told that...I had a short stay at the Holiday Inn, Covington, LA, for business. The hotel staff are hard working and dedicated people, but they are saddled with an old building and "everything that can go wrong, will" fascilities. During my stay the television did not work well (bad reception, ABC and NBC completely unavailable; was told it was hotel wide and that it would be two or three days until it was fixed), the internet was unreliable (kept dropping out, was told that it was a problem "in the back of the hotel", there was a persistant mildew smell, and some of the public corridor carpets had water stains from a flood. Having said that, the room was clean, if somewhat worn. It could definitely use a refurbishment of things like the iron, and the furniture other than the beds seems well used. I was given a room in a separate building behind the main building, and it was wonderfully quiet back there. Plenty of free parking. I ate dinner and breakfast at the restaurant. The dinner was wonderful. I was surprised on the upside as everything was prepared perfectly and the service was great. Breakfast was fine. Everyone in the restaurant needed a cup of coffee if their lack of enthusiasm was an indication, but they were efficient and the food was fine.The front desk staff had a can-do attitude and were wonderfully helpful. I was told that they will be doing a major renovation and probably a reflagging in the near future; the renovation is needed. Until then, it's a rather worn hotel surrounded by much newer hotels (a new Staybridge Suites is next door, and a Homewood Suites about 1/2 a mile away) that are not much different pricewise.More</t>
   </si>
   <si>
-    <t>cyrian13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r39270943-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1960,9 +1939,6 @@
     <t>August 2009</t>
   </si>
   <si>
-    <t>TravelinMan78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r30908136-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -1979,9 +1955,6 @@
   </si>
   <si>
     <t>April 2009</t>
-  </si>
-  <si>
-    <t>Sloshgator</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r23270513-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -2009,9 +1982,6 @@
   Some of the rooms have outside doors, but ours faced into that courtyard which is warm and inviting.  There is also an indoor/outdoor salt water pool which looked clean and well-kept (but that we did not use during our stay.)  There is also a bar next to the pool.
   The room was very clean and modestly furnished though on the small side.  A microwave, refrigerator and coffee machine are included.
   One thing we did not like was the lack of a continental breakfast.  The staff instead pointed us towards the full-service restaurant which was sparsely decorated although it looked very new.  The service was very slow for breakfast despite us being the only ones in the dining room at the time.  They were also out of cottage cheese even though it said it was included with the fruit we ordered (but no price adjustment offered.)  You would probably do...My family and I stayed a night in this hotel passing through Covington, LA on I-10 from which it is less than a mile.  While it is convenient for getting off and back on the highway, the location is not too attractive nestled among shopping plazas and next to a gas station.  A restaurant is built on to the front of the hotel and the front desk is tucked inside of a courtyard, so you don't get the feel that the staff knows what is going on in the parking lot.  Some of the rooms have outside doors, but ours faced into that courtyard which is warm and inviting.  There is also an indoor/outdoor salt water pool which looked clean and well-kept (but that we did not use during our stay.)  There is also a bar next to the pool.  The room was very clean and modestly furnished though on the small side.  A microwave, refrigerator and coffee machine are included.  One thing we did not like was the lack of a continental breakfast.  The staff instead pointed us towards the full-service restaurant which was sparsely decorated although it looked very new.  The service was very slow for breakfast despite us being the only ones in the dining room at the time.  They were also out of cottage cheese even though it said it was included with the fruit we ordered (but no price adjustment offered.)  You would probably do better outside the hotel or storing something for the next day in that refrigerator and using that microwave in the room.More</t>
-  </si>
-  <si>
-    <t>Megatrone</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r14844699-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -2049,9 +2019,6 @@
 I have never been back there so far. Maybe I was just unlucky to have a noisy and dirty room, but they definitely need to improve their service for breakfast! I don't think I will go back there again unless all the other hotels are fully booked! My 3 days 2 nights stay was a little below average for the $129 per night price I...I'm having to travel to Covington on business every week since March 2008. This is the motel I choose on my first trip there. Here's a summary of what I think about this place:I like:Nice relaxing atmosphere in the lobby.Parking is ample.Conveniently located along Hwy 190What I don't like:Room was old and dirty (I had problems with water leaking into the toilet bowl and phone that does not work). The carpet was kind of dirty. Decided  to stop by for their '$25' breakfast which was included in the reservation. It was very very disappointing. The service is EXTREMELY SLOW! The waitress are just slow in taking orders, slow in getting you your food and slow in getting you the check! I'm not too impressed with their burnt bacon either! A breakfast that was suppose to take 30 minutes ended up being 45 minutes to an hour! The room I had was kinda noisy and people were talking loud and slamming their room doors in the middle of the night!I have never been back there so far. Maybe I was just unlucky to have a noisy and dirty room, but they definitely need to improve their service for breakfast! I don't think I will go back there again unless all the other hotels are fully booked! My 3 days 2 nights stay was a little below average for the $129 per night price I paid.JamesMore</t>
   </si>
   <si>
-    <t>studmslfn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r12624950-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -2070,9 +2037,6 @@
     <t>December 2007</t>
   </si>
   <si>
-    <t>Kerri1975</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r10673381-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -2088,9 +2052,6 @@
     <t>October 2007</t>
   </si>
   <si>
-    <t>HonestReviewForU</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r10541630-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -2106,9 +2067,6 @@
     <t>An older property with rooms entered from outdoors, this Holiday Inn is well kept.  It's got free, hard-wired Internet which was very quick.  The TV could do with a few more channels, though no big deal.But, truth be told, this wasn't a $114 room.  Days earlier, I stayed in an identical Holiday Inn in Gulfport for $79 -- and that included a breakfast coupon.  But evidently, overcharging is a problem in and around Covington, because I overheard some folks in a local laundromat complaining about how expensive the rooms are.It's a convenient place with lots of retail nearby, but if price is a concern, keep driving.</t>
   </si>
   <si>
-    <t>AshMoe05</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r7404898-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
   </si>
   <si>
@@ -2125,9 +2083,6 @@
   </si>
   <si>
     <t>April 2007</t>
-  </si>
-  <si>
-    <t>hdcspike</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r7290242-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -2154,9 +2109,6 @@
      The rooms have been completely renovated; with new furniture, bed, etc.  Each room has a new refrigerator and microwave.  The bathrooms are a litle small, but very clean and the shower had plenty of pressure.  A paper is delivered to your room every morning.  All rooms have high-speed internet using a standard wired (LAN) connection.  Wireless Wi-Fi is available in the lobby area which includes the open area bar and indoor/outdoor pool.
      Speaking of the pool, it was being worked on while I was there, but it's an indoor/outdoor pool with a hot tub.  The outside portion was deeper than most hotel pools...about 7-8 feet.
      I didn't eat dinner at the hotel because of the numerous dinning options available within walking distance - Copelands is across the street for...I stayed at the Hoilday Inn in Covington for one week.  I was on business and chose the hotel based on location and the fact that it had a bar and restaurant.  I had no idea what time I would be coming back to the hotel (after work), so having a bar and restaurant there was a big plus.     The check in was quick and easy, and the hotel staff was were some of the nicest I have seen in awhile.  Please understand that this hotel was built a long time ago and is a little dated, but with that said, they have done a great job of renovating the hotel.       The rooms have been completely renovated; with new furniture, bed, etc.  Each room has a new refrigerator and microwave.  The bathrooms are a litle small, but very clean and the shower had plenty of pressure.  A paper is delivered to your room every morning.  All rooms have high-speed internet using a standard wired (LAN) connection.  Wireless Wi-Fi is available in the lobby area which includes the open area bar and indoor/outdoor pool.     Speaking of the pool, it was being worked on while I was there, but it's an indoor/outdoor pool with a hot tub.  The outside portion was deeper than most hotel pools...about 7-8 feet.     I didn't eat dinner at the hotel because of the numerous dinning options available within walking distance - Copelands is across the street for those who like a New Orleans flair to your food.  I did eat breakfast at the hotel.  It's a standard buffet for about $8.00.  It might seem expensive, but considering how much you can eat and the variety, you can fill up and skip lunch.  Plus it sure did beat the standard fair you get at other hotels.     The hotel staff told me that they will be renovating the entire lobby area in the near future.  It was ok as it was, but a little dated as I said above.  Again, the lobby area has your check-in area, bar, pool,and a huge sitting area.       Would I stay hear again...yes.  The hotel staff was great and the price was lower than any other hotel in the area.More</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d93001-r3311331-Clarion_Inn_Suites_Conference_Center-Covington_Louisiana.html</t>
@@ -2688,48 +2640,40 @@
       <c r="A2" t="n">
         <v>1009</v>
       </c>
-      <c r="B2" t="n">
-        <v>15195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2740,57 +2684,57 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1009</v>
       </c>
-      <c r="B3" t="n">
-        <v>15196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2801,66 +2745,62 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
         <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1009</v>
       </c>
-      <c r="B4" t="n">
-        <v>3494</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
@@ -2872,54 +2812,50 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
         <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1009</v>
       </c>
-      <c r="B5" t="n">
-        <v>15197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -2933,190 +2869,188 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1009</v>
       </c>
-      <c r="B6" t="n">
-        <v>15198</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1009</v>
       </c>
-      <c r="B7" t="n">
-        <v>15199</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" t="s">
-        <v>97</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1009</v>
       </c>
-      <c r="B8" t="n">
-        <v>15200</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3128,60 +3062,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1009</v>
       </c>
-      <c r="B9" t="n">
-        <v>15201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
         <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
-        <v>87</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3193,136 +3123,118 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1009</v>
       </c>
-      <c r="B10" t="n">
-        <v>15202</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1009</v>
       </c>
-      <c r="B11" t="n">
-        <v>7111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
         <v>5</v>
@@ -3335,269 +3247,235 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1009</v>
       </c>
-      <c r="B12" t="n">
-        <v>15203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1009</v>
       </c>
-      <c r="B13" t="n">
-        <v>15204</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1009</v>
       </c>
-      <c r="B14" t="n">
-        <v>15205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1009</v>
       </c>
-      <c r="B15" t="n">
-        <v>7910</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3609,60 +3487,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1009</v>
       </c>
-      <c r="B16" t="n">
-        <v>8063</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3674,133 +3548,127 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1009</v>
       </c>
-      <c r="B17" t="n">
-        <v>15206</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1009</v>
       </c>
-      <c r="B18" t="n">
-        <v>15207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" t="s"/>
       <c r="S18" t="n">
@@ -3808,213 +3676,201 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1009</v>
       </c>
-      <c r="B19" t="n">
-        <v>15208</v>
-      </c>
-      <c r="C19" t="s">
-        <v>202</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1009</v>
       </c>
-      <c r="B20" t="n">
-        <v>15209</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1009</v>
       </c>
-      <c r="B21" t="n">
-        <v>15210</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -4023,263 +3879,251 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1009</v>
       </c>
-      <c r="B22" t="n">
-        <v>7179</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1009</v>
       </c>
-      <c r="B23" t="n">
-        <v>15211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
       <c r="Y23" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1009</v>
       </c>
-      <c r="B24" t="n">
-        <v>15212</v>
-      </c>
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>236</v>
+      </c>
+      <c r="X24" t="s">
+        <v>237</v>
+      </c>
       <c r="Y24" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1009</v>
       </c>
-      <c r="B25" t="n">
-        <v>15213</v>
-      </c>
-      <c r="C25" t="s">
-        <v>253</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -4288,64 +4132,64 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
       <c r="Y25" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1009</v>
       </c>
-      <c r="B26" t="n">
-        <v>15214</v>
-      </c>
-      <c r="C26" t="s">
-        <v>261</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
         <v>4</v>
       </c>
-      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>4</v>
@@ -4353,258 +4197,262 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
       <c r="Y26" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1009</v>
       </c>
-      <c r="B27" t="n">
-        <v>15215</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
       <c r="Y27" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1009</v>
       </c>
-      <c r="B28" t="n">
-        <v>7211</v>
-      </c>
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>134</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1009</v>
       </c>
-      <c r="B29" t="n">
-        <v>15216</v>
-      </c>
-      <c r="C29" t="s">
-        <v>281</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1009</v>
       </c>
-      <c r="B30" t="n">
-        <v>15217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>291</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4613,329 +4461,289 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>298</v>
-      </c>
-      <c r="X30" t="s">
-        <v>299</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1009</v>
       </c>
-      <c r="B31" t="n">
-        <v>15218</v>
-      </c>
-      <c r="C31" t="s">
-        <v>301</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>48</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1009</v>
       </c>
-      <c r="B32" t="n">
-        <v>15219</v>
-      </c>
-      <c r="C32" t="s">
-        <v>307</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="O32" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>314</v>
-      </c>
-      <c r="X32" t="s">
-        <v>315</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1009</v>
       </c>
-      <c r="B33" t="n">
-        <v>15220</v>
-      </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>323</v>
-      </c>
-      <c r="X33" t="s">
-        <v>324</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1009</v>
       </c>
-      <c r="B34" t="n">
-        <v>15221</v>
-      </c>
-      <c r="C34" t="s">
-        <v>326</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>332</v>
-      </c>
-      <c r="X34" t="s">
-        <v>333</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1009</v>
       </c>
-      <c r="B35" t="n">
-        <v>15222</v>
-      </c>
-      <c r="C35" t="s">
-        <v>335</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4946,195 +4754,199 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>342</v>
-      </c>
-      <c r="X35" t="s">
-        <v>343</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1009</v>
       </c>
-      <c r="B36" t="n">
-        <v>15223</v>
-      </c>
-      <c r="C36" t="s">
-        <v>345</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>320</v>
+      </c>
+      <c r="X36" t="s">
+        <v>321</v>
+      </c>
       <c r="Y36" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1009</v>
       </c>
-      <c r="B37" t="n">
-        <v>15224</v>
-      </c>
-      <c r="C37" t="s">
-        <v>352</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>329</v>
+      </c>
+      <c r="X37" t="s">
+        <v>330</v>
+      </c>
       <c r="Y37" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1009</v>
       </c>
-      <c r="B38" t="n">
-        <v>15225</v>
-      </c>
-      <c r="C38" t="s">
-        <v>360</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5142,119 +4954,111 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1009</v>
       </c>
-      <c r="B39" t="n">
-        <v>7131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>368</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>343</v>
+      </c>
+      <c r="X39" t="s">
+        <v>344</v>
+      </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1009</v>
       </c>
-      <c r="B40" t="n">
-        <v>15226</v>
-      </c>
-      <c r="C40" t="s">
-        <v>374</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5265,66 +5069,66 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
       <c r="Y40" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1009</v>
       </c>
-      <c r="B41" t="n">
-        <v>15227</v>
-      </c>
-      <c r="C41" t="s">
-        <v>381</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -5333,60 +5137,56 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="X41" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1009</v>
       </c>
-      <c r="B42" t="n">
-        <v>15228</v>
-      </c>
-      <c r="C42" t="s">
-        <v>390</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5398,274 +5198,236 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="X42" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1009</v>
       </c>
-      <c r="B43" t="n">
-        <v>15229</v>
-      </c>
-      <c r="C43" t="s">
-        <v>398</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>396</v>
-      </c>
-      <c r="X43" t="s">
-        <v>388</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1009</v>
       </c>
-      <c r="B44" t="n">
-        <v>7152</v>
-      </c>
-      <c r="C44" t="s">
-        <v>406</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>412</v>
-      </c>
-      <c r="X44" t="s">
-        <v>413</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1009</v>
       </c>
-      <c r="B45" t="n">
-        <v>15230</v>
-      </c>
-      <c r="C45" t="s">
-        <v>415</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>48</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>422</v>
-      </c>
-      <c r="X45" t="s">
-        <v>413</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1009</v>
       </c>
-      <c r="B46" t="n">
-        <v>15231</v>
-      </c>
-      <c r="C46" t="s">
-        <v>424</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>5</v>
       </c>
@@ -5677,135 +5439,113 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>431</v>
-      </c>
-      <c r="X46" t="s">
-        <v>432</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1009</v>
       </c>
-      <c r="B47" t="n">
-        <v>15232</v>
-      </c>
-      <c r="C47" t="s">
-        <v>434</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="O47" t="s">
-        <v>48</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1009</v>
       </c>
-      <c r="B48" t="n">
-        <v>15233</v>
-      </c>
-      <c r="C48" t="s">
-        <v>441</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="J48" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="O48" t="s">
-        <v>48</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
         <v>5</v>
       </c>
@@ -5820,284 +5560,256 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="X48" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="Y48" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1009</v>
       </c>
-      <c r="B49" t="n">
-        <v>15234</v>
-      </c>
-      <c r="C49" t="s">
-        <v>450</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="J49" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="K49" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="O49" t="s">
-        <v>87</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="X49" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="Y49" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1009</v>
       </c>
-      <c r="B50" t="n">
-        <v>15235</v>
-      </c>
-      <c r="C50" t="s">
-        <v>458</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="J50" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="K50" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="L50" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s">
-        <v>48</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="X50" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="Y50" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1009</v>
       </c>
-      <c r="B51" t="n">
-        <v>15236</v>
-      </c>
-      <c r="C51" t="s">
-        <v>466</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="J51" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="X51" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="Y51" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1009</v>
       </c>
-      <c r="B52" t="n">
-        <v>15237</v>
-      </c>
-      <c r="C52" t="s">
-        <v>476</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="J52" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+      <c r="N52" t="s">
+        <v>437</v>
+      </c>
+      <c r="O52" t="s">
+        <v>110</v>
+      </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -6106,471 +5818,457 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="X52" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="Y52" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>1009</v>
       </c>
-      <c r="B53" t="n">
-        <v>15238</v>
-      </c>
-      <c r="C53" t="s">
-        <v>482</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I53" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="O53" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="X53" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="Y53" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1009</v>
       </c>
-      <c r="B54" t="n">
-        <v>15239</v>
-      </c>
-      <c r="C54" t="s">
-        <v>492</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="J54" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="K54" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="L54" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="O54" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>473</v>
-      </c>
-      <c r="X54" t="s">
-        <v>474</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>1009</v>
       </c>
-      <c r="B55" t="n">
-        <v>15240</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="J55" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="L55" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>460</v>
+      </c>
+      <c r="O55" t="s">
+        <v>110</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>461</v>
+      </c>
+      <c r="X55" t="s">
+        <v>447</v>
+      </c>
       <c r="Y55" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1009</v>
       </c>
-      <c r="B56" t="n">
-        <v>15241</v>
-      </c>
-      <c r="C56" t="s">
-        <v>504</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I56" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="J56" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="O56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>468</v>
+      </c>
+      <c r="X56" t="s">
+        <v>447</v>
+      </c>
       <c r="Y56" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>1009</v>
       </c>
-      <c r="B57" t="n">
-        <v>15242</v>
-      </c>
-      <c r="C57" t="s">
-        <v>512</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="J57" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="K57" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>475</v>
+      </c>
+      <c r="O57" t="s">
+        <v>110</v>
+      </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>468</v>
+      </c>
+      <c r="X57" t="s">
+        <v>447</v>
+      </c>
       <c r="Y57" t="s">
-        <v>517</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1009</v>
       </c>
-      <c r="B58" t="n">
-        <v>15243</v>
-      </c>
-      <c r="C58" t="s">
-        <v>518</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="J58" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="K58" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="L58" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="O58" t="s">
-        <v>48</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>4</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="X58" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Y58" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>1009</v>
       </c>
-      <c r="B59" t="n">
-        <v>15244</v>
-      </c>
-      <c r="C59" t="s">
-        <v>525</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="J59" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="K59" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="L59" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
-        <v>531</v>
-      </c>
-      <c r="O59" t="s">
-        <v>134</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
         <v>5</v>
       </c>
@@ -6578,7 +6276,7 @@
         <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -6590,57 +6288,57 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>483</v>
+      </c>
+      <c r="X59" t="s">
+        <v>484</v>
+      </c>
       <c r="Y59" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1009</v>
       </c>
-      <c r="B60" t="n">
-        <v>15245</v>
-      </c>
-      <c r="C60" t="s">
-        <v>533</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="J60" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="K60" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="L60" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="O60" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6652,69 +6350,65 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="X60" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="Y60" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>1009</v>
       </c>
-      <c r="B61" t="n">
-        <v>15246</v>
-      </c>
-      <c r="C61" t="s">
-        <v>543</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="J61" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="O61" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
         <v>4</v>
       </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
         <v>4</v>
@@ -6726,255 +6420,243 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>483</v>
+      </c>
+      <c r="X61" t="s">
+        <v>484</v>
+      </c>
       <c r="Y61" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>1009</v>
       </c>
-      <c r="B62" t="n">
-        <v>15247</v>
-      </c>
-      <c r="C62" t="s">
-        <v>550</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="J62" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="K62" t="s">
-        <v>554</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s"/>
       <c r="O62" t="s"/>
-      <c r="P62" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>4</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>1009</v>
       </c>
-      <c r="B63" t="n">
-        <v>15248</v>
-      </c>
-      <c r="C63" t="s">
-        <v>557</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s">
-        <v>559</v>
+        <v>511</v>
       </c>
       <c r="J63" t="s">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="K63" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>515</v>
+      </c>
+      <c r="O63" t="s">
+        <v>92</v>
+      </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>563</v>
-      </c>
-      <c r="X63" t="s">
-        <v>564</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1009</v>
       </c>
-      <c r="B64" t="n">
-        <v>7368</v>
-      </c>
-      <c r="C64" t="s">
-        <v>566</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="J64" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
         <v>4</v>
       </c>
-      <c r="N64" t="s">
-        <v>572</v>
-      </c>
-      <c r="O64" t="s">
-        <v>134</v>
-      </c>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1009</v>
       </c>
-      <c r="B65" t="n">
-        <v>4998</v>
-      </c>
-      <c r="C65" t="s">
-        <v>573</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I65" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="J65" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="L65" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>515</v>
+      </c>
+      <c r="O65" t="s">
+        <v>110</v>
+      </c>
+      <c r="P65" t="n">
         <v>4</v>
-      </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
-      <c r="P65" t="n">
-        <v>5</v>
       </c>
       <c r="Q65" t="n">
         <v>5</v>
@@ -6987,78 +6669,78 @@
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>497</v>
+      </c>
+      <c r="X65" t="s">
+        <v>498</v>
+      </c>
       <c r="Y65" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>1009</v>
       </c>
-      <c r="B66" t="n">
-        <v>15249</v>
-      </c>
-      <c r="C66" t="s">
-        <v>579</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I66" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="J66" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="K66" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="L66" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="O66" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
         <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -7066,137 +6748,127 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1009</v>
       </c>
-      <c r="B67" t="n">
-        <v>15250</v>
-      </c>
-      <c r="C67" t="s">
-        <v>586</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="J67" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="K67" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="L67" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>540</v>
+      </c>
+      <c r="O67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>541</v>
+      </c>
+      <c r="X67" t="s">
+        <v>542</v>
+      </c>
       <c r="Y67" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>1009</v>
       </c>
-      <c r="B68" t="n">
-        <v>15251</v>
-      </c>
-      <c r="C68" t="s">
-        <v>592</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I68" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="J68" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="K68" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="O68" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
         <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -7204,66 +6876,62 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>1009</v>
       </c>
-      <c r="B69" t="n">
-        <v>15196</v>
-      </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I69" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="J69" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="K69" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="L69" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s"/>
       <c r="O69" t="s"/>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -7271,208 +6939,186 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>1009</v>
       </c>
-      <c r="B70" t="n">
-        <v>15252</v>
-      </c>
-      <c r="C70" t="s">
-        <v>605</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I70" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="J70" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="K70" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="L70" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
-      </c>
-      <c r="N70" t="s">
-        <v>611</v>
-      </c>
-      <c r="O70" t="s">
-        <v>134</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R70" t="n">
         <v>5</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>561</v>
+      </c>
+      <c r="X70" t="s">
+        <v>562</v>
+      </c>
       <c r="Y70" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>1009</v>
       </c>
-      <c r="B71" t="n">
-        <v>15253</v>
-      </c>
-      <c r="C71" t="s">
-        <v>612</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I71" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="J71" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="K71" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
       <c r="L71" t="s">
-        <v>617</v>
+        <v>568</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="O71" t="s">
-        <v>134</v>
-      </c>
-      <c r="P71" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
       <c r="R71" t="s"/>
-      <c r="S71" t="n">
-        <v>5</v>
-      </c>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
-      <c r="U71" t="n">
-        <v>4</v>
-      </c>
+      <c r="U71" t="s"/>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>1009</v>
       </c>
-      <c r="B72" t="n">
-        <v>15254</v>
-      </c>
-      <c r="C72" t="s">
-        <v>620</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="J72" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="K72" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
-      </c>
-      <c r="N72" t="s">
-        <v>626</v>
-      </c>
-      <c r="O72" t="s">
-        <v>134</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -7480,70 +7126,66 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>1009</v>
       </c>
-      <c r="B73" t="n">
-        <v>15255</v>
-      </c>
-      <c r="C73" t="s">
-        <v>628</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="J73" t="s">
-        <v>631</v>
+        <v>577</v>
       </c>
       <c r="K73" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="L73" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>580</v>
+      </c>
+      <c r="O73" t="s">
+        <v>110</v>
+      </c>
+      <c r="P73" t="n">
         <v>4</v>
       </c>
-      <c r="N73" t="s">
-        <v>633</v>
-      </c>
-      <c r="O73" t="s">
-        <v>87</v>
-      </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>3</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>4</v>
       </c>
       <c r="R73" t="n">
         <v>4</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -7551,55 +7193,47 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>1009</v>
       </c>
-      <c r="B74" t="n">
-        <v>15256</v>
-      </c>
-      <c r="C74" t="s">
-        <v>634</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I74" t="s">
-        <v>636</v>
+        <v>582</v>
       </c>
       <c r="J74" t="s">
-        <v>637</v>
+        <v>583</v>
       </c>
       <c r="K74" t="s">
-        <v>638</v>
+        <v>584</v>
       </c>
       <c r="L74" t="s">
-        <v>639</v>
+        <v>585</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
-      <c r="N74" t="s">
-        <v>640</v>
-      </c>
-      <c r="O74" t="s">
-        <v>134</v>
-      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
       <c r="P74" t="n">
         <v>5</v>
       </c>
@@ -7622,139 +7256,129 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>639</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>1009</v>
       </c>
-      <c r="B75" t="n">
-        <v>15257</v>
-      </c>
-      <c r="C75" t="s">
-        <v>641</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I75" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="J75" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="K75" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="L75" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="O75" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S75" t="n">
         <v>5</v>
       </c>
       <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>648</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>1009</v>
       </c>
-      <c r="B76" t="n">
-        <v>15258</v>
-      </c>
-      <c r="C76" t="s">
-        <v>649</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>650</v>
+        <v>592</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I76" t="s">
-        <v>651</v>
+        <v>593</v>
       </c>
       <c r="J76" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="K76" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="L76" t="s">
-        <v>654</v>
+        <v>596</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
-      </c>
-      <c r="N76" t="s">
-        <v>655</v>
-      </c>
-      <c r="O76" t="s">
-        <v>134</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
       <c r="P76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R76" t="n">
         <v>5</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T76" t="s"/>
       <c r="U76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -7762,70 +7386,66 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>1009</v>
       </c>
-      <c r="B77" t="n">
-        <v>15259</v>
-      </c>
-      <c r="C77" t="s">
-        <v>657</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>658</v>
+        <v>598</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I77" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
       <c r="J77" t="s">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s">
-        <v>661</v>
+        <v>601</v>
       </c>
       <c r="L77" t="s">
-        <v>662</v>
+        <v>602</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>663</v>
+        <v>603</v>
       </c>
       <c r="O77" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
         <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T77" t="s"/>
       <c r="U77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -7833,70 +7453,62 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>662</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>1009</v>
       </c>
-      <c r="B78" t="n">
-        <v>15260</v>
-      </c>
-      <c r="C78" t="s">
-        <v>664</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="J78" t="s">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="K78" t="s">
-        <v>244</v>
+        <v>607</v>
       </c>
       <c r="L78" t="s">
-        <v>668</v>
+        <v>608</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>669</v>
+        <v>609</v>
       </c>
       <c r="O78" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>5</v>
-      </c>
-      <c r="R78" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
       <c r="S78" t="n">
         <v>5</v>
       </c>
       <c r="T78" t="s"/>
       <c r="U78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -7904,135 +7516,129 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>668</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>1009</v>
       </c>
-      <c r="B79" t="n">
-        <v>15261</v>
-      </c>
-      <c r="C79" t="s">
-        <v>670</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>671</v>
+        <v>611</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
       <c r="J79" t="s">
-        <v>673</v>
+        <v>613</v>
       </c>
       <c r="K79" t="s">
-        <v>674</v>
+        <v>614</v>
       </c>
       <c r="L79" t="s">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="O79" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
         <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S79" t="n">
         <v>3</v>
       </c>
       <c r="T79" t="s"/>
-      <c r="U79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>675</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1009</v>
       </c>
-      <c r="B80" t="n">
-        <v>15262</v>
-      </c>
-      <c r="C80" t="s">
-        <v>676</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="J80" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="K80" t="s">
-        <v>680</v>
+        <v>601</v>
       </c>
       <c r="L80" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>682</v>
+        <v>622</v>
       </c>
       <c r="O80" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="P80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R80" t="n">
         <v>4</v>
       </c>
       <c r="S80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T80" t="s"/>
       <c r="U80" t="n">
@@ -8044,70 +7650,66 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>1009</v>
       </c>
-      <c r="B81" t="n">
-        <v>15263</v>
-      </c>
-      <c r="C81" t="s">
-        <v>683</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>684</v>
+        <v>623</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I81" t="s">
-        <v>685</v>
+        <v>624</v>
       </c>
       <c r="J81" t="s">
-        <v>686</v>
+        <v>625</v>
       </c>
       <c r="K81" t="s">
-        <v>687</v>
+        <v>626</v>
       </c>
       <c r="L81" t="s">
-        <v>688</v>
+        <v>627</v>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>682</v>
+        <v>628</v>
       </c>
       <c r="O81" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T81" t="s"/>
       <c r="U81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -8115,129 +7717,586 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>689</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>1009</v>
       </c>
-      <c r="B82" t="n">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>690</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>691</v>
+        <v>629</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I82" t="s">
-        <v>692</v>
+        <v>630</v>
       </c>
       <c r="J82" t="s">
-        <v>693</v>
+        <v>631</v>
       </c>
       <c r="K82" t="s">
-        <v>694</v>
+        <v>632</v>
       </c>
       <c r="L82" t="s">
-        <v>695</v>
+        <v>633</v>
       </c>
       <c r="M82" t="n">
-        <v>5</v>
-      </c>
-      <c r="N82" t="s"/>
-      <c r="O82" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>634</v>
+      </c>
+      <c r="O82" t="s">
+        <v>110</v>
+      </c>
       <c r="P82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
-        <v>5</v>
-      </c>
-      <c r="R82" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
       <c r="S82" t="n">
         <v>5</v>
       </c>
       <c r="T82" t="s"/>
-      <c r="U82" t="n">
-        <v>5</v>
-      </c>
+      <c r="U82" t="s"/>
       <c r="V82" t="n">
         <v>0</v>
       </c>
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>695</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>1009</v>
       </c>
-      <c r="B83" t="n">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>690</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I83" t="s">
-        <v>697</v>
+        <v>637</v>
       </c>
       <c r="J83" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="K83" t="s">
-        <v>699</v>
+        <v>639</v>
       </c>
       <c r="L83" t="s">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>641</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
         <v>1</v>
       </c>
-      <c r="N83" t="s"/>
-      <c r="O83" t="s"/>
-      <c r="P83" t="s"/>
-      <c r="Q83" t="s"/>
-      <c r="R83" t="s"/>
-      <c r="S83" t="s"/>
       <c r="T83" t="s"/>
-      <c r="U83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>701</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>643</v>
+      </c>
+      <c r="G84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" t="s">
+        <v>644</v>
+      </c>
+      <c r="J84" t="s">
+        <v>645</v>
+      </c>
+      <c r="K84" t="s">
+        <v>646</v>
+      </c>
+      <c r="L84" t="s">
+        <v>647</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>648</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>649</v>
+      </c>
+      <c r="G85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s">
+        <v>650</v>
+      </c>
+      <c r="J85" t="s">
+        <v>651</v>
+      </c>
+      <c r="K85" t="s">
+        <v>282</v>
+      </c>
+      <c r="L85" t="s">
+        <v>652</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>653</v>
+      </c>
+      <c r="O85" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>654</v>
+      </c>
+      <c r="G86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s">
+        <v>655</v>
+      </c>
+      <c r="J86" t="s">
+        <v>656</v>
+      </c>
+      <c r="K86" t="s">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>653</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>659</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s">
+        <v>660</v>
+      </c>
+      <c r="J87" t="s">
+        <v>661</v>
+      </c>
+      <c r="K87" t="s">
+        <v>662</v>
+      </c>
+      <c r="L87" t="s">
+        <v>663</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>664</v>
+      </c>
+      <c r="O87" t="s">
+        <v>110</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>665</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s">
+        <v>666</v>
+      </c>
+      <c r="J88" t="s">
+        <v>667</v>
+      </c>
+      <c r="K88" t="s">
+        <v>668</v>
+      </c>
+      <c r="L88" t="s">
+        <v>669</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>664</v>
+      </c>
+      <c r="O88" t="s">
+        <v>65</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>671</v>
+      </c>
+      <c r="G89" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>672</v>
+      </c>
+      <c r="J89" t="s">
+        <v>673</v>
+      </c>
+      <c r="K89" t="s">
+        <v>674</v>
+      </c>
+      <c r="L89" t="s">
+        <v>675</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>676</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s">
+        <v>677</v>
+      </c>
+      <c r="J90" t="s">
+        <v>678</v>
+      </c>
+      <c r="K90" t="s">
+        <v>679</v>
+      </c>
+      <c r="L90" t="s">
+        <v>680</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
